--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_645.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_645.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32530-d92498-Reviews-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>108</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Residence-Inn-By-Marriott-Irvine-Spectrum.h23939.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_645.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_645.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1517 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r569662867-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>32530</t>
+  </si>
+  <si>
+    <t>92498</t>
+  </si>
+  <si>
+    <t>569662867</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Perfect for a long work stay or traveling with Family.</t>
+  </si>
+  <si>
+    <t>The location is good.If you stay here you will need a car, cause the don't have Shuttle service (Pick-up and Drop -off) to near places.I stayed many times for work while traveling with my wife and Kids.The Apartments are really comfortable.Definitely a good option.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>LeAnnAGM, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>The location is good.If you stay here you will need a car, cause the don't have Shuttle service (Pick-up and Drop -off) to near places.I stayed many times for work while traveling with my wife and Kids.The Apartments are really comfortable.Definitely a good option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r565176836-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>565176836</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Just fine</t>
+  </si>
+  <si>
+    <t>This is my 3rd visit to this hotel for local business.  On this visit I was given a newly renovated room.  The first challenge was wall light switches that didn’t operate a light.  The new lamps are not intuitive to find the “on” switch so I entered a dark room and couldn’t get lights on.   There is an ceiling fan with lights that when you find the switch it is like flood lights- so bright I turned them off.   The ceiling fan does not work regardless of what button you push.
+The sofa is new but hard as a rock.  So difficult to get comfortable.   The sofa is perpendicular to the wall the tv is on so the placement is not right whatsoever. 
+The wall TV in the master bedroom is not centered with the king bed.  It is off to the side and is not adjustable to move.
+The bathroom door doesn’t stay completely open.  I had to put towels on floor to keep it open.  
+The hotel is clean.  The furnishings are new.  The kitchen area is very good.  There is ample space in the unit.  There is a heated pool.  
+The breakfast is good and brings good value.   
+I believe where Marriott failed is the renovation design.  How they were sold on the hard as rock sofa, the placement of the furniture,and wall TVs not centered makes me wonder what interior design firm designed this space and...This is my 3rd visit to this hotel for local business.  On this visit I was given a newly renovated room.  The first challenge was wall light switches that didn’t operate a light.  The new lamps are not intuitive to find the “on” switch so I entered a dark room and couldn’t get lights on.   There is an ceiling fan with lights that when you find the switch it is like flood lights- so bright I turned them off.   The ceiling fan does not work regardless of what button you push.The sofa is new but hard as a rock.  So difficult to get comfortable.   The sofa is perpendicular to the wall the tv is on so the placement is not right whatsoever. The wall TV in the master bedroom is not centered with the king bed.  It is off to the side and is not adjustable to move.The bathroom door doesn’t stay completely open.  I had to put towels on floor to keep it open.  The hotel is clean.  The furnishings are new.  The kitchen area is very good.  There is ample space in the unit.  There is a heated pool.  The breakfast is good and brings good value.   I believe where Marriott failed is the renovation design.  How they were sold on the hard as rock sofa, the placement of the furniture,and wall TVs not centered makes me wonder what interior design firm designed this space and selected the furnishings and lighting.   The rooms are spacious and there was so much opportunity to design the space so much better. Did the design firm think of the customer, from the time they walk in the door to turn on a light to sitting on the bed or sofa?These comments are not something a general manager can change- with more rooms being renovated and the pallets of furnishings in the parking lot- everything has already been ordered.This hotel is perfect for a family looking for value - but for me- I will look elsewhere on my next trip to Irvine.    I am looking for a functional, comfortable room- that’s it.  Sorry Marriott- you missed the mark in your renovation.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>LeAnnAGM, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>This is my 3rd visit to this hotel for local business.  On this visit I was given a newly renovated room.  The first challenge was wall light switches that didn’t operate a light.  The new lamps are not intuitive to find the “on” switch so I entered a dark room and couldn’t get lights on.   There is an ceiling fan with lights that when you find the switch it is like flood lights- so bright I turned them off.   The ceiling fan does not work regardless of what button you push.
+The sofa is new but hard as a rock.  So difficult to get comfortable.   The sofa is perpendicular to the wall the tv is on so the placement is not right whatsoever. 
+The wall TV in the master bedroom is not centered with the king bed.  It is off to the side and is not adjustable to move.
+The bathroom door doesn’t stay completely open.  I had to put towels on floor to keep it open.  
+The hotel is clean.  The furnishings are new.  The kitchen area is very good.  There is ample space in the unit.  There is a heated pool.  
+The breakfast is good and brings good value.   
+I believe where Marriott failed is the renovation design.  How they were sold on the hard as rock sofa, the placement of the furniture,and wall TVs not centered makes me wonder what interior design firm designed this space and...This is my 3rd visit to this hotel for local business.  On this visit I was given a newly renovated room.  The first challenge was wall light switches that didn’t operate a light.  The new lamps are not intuitive to find the “on” switch so I entered a dark room and couldn’t get lights on.   There is an ceiling fan with lights that when you find the switch it is like flood lights- so bright I turned them off.   The ceiling fan does not work regardless of what button you push.The sofa is new but hard as a rock.  So difficult to get comfortable.   The sofa is perpendicular to the wall the tv is on so the placement is not right whatsoever. The wall TV in the master bedroom is not centered with the king bed.  It is off to the side and is not adjustable to move.The bathroom door doesn’t stay completely open.  I had to put towels on floor to keep it open.  The hotel is clean.  The furnishings are new.  The kitchen area is very good.  There is ample space in the unit.  There is a heated pool.  The breakfast is good and brings good value.   I believe where Marriott failed is the renovation design.  How they were sold on the hard as rock sofa, the placement of the furniture,and wall TVs not centered makes me wonder what interior design firm designed this space and selected the furnishings and lighting.   The rooms are spacious and there was so much opportunity to design the space so much better. Did the design firm think of the customer, from the time they walk in the door to turn on a light to sitting on the bed or sofa?These comments are not something a general manager can change- with more rooms being renovated and the pallets of furnishings in the parking lot- everything has already been ordered.This hotel is perfect for a family looking for value - but for me- I will look elsewhere on my next trip to Irvine.    I am looking for a functional, comfortable room- that’s it.  Sorry Marriott- you missed the mark in your renovation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r560289544-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>560289544</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Room has nice layout and in mid-renovation</t>
+  </si>
+  <si>
+    <t>This room was used to stay close to friends in the area. It was clean and had a fun layout. It was very dated, but the property is in the middle of a renovation. The pics of how it will look when complete look great in the lobby.The staff was very cordial and even swung by and gave us fruit for the morning with a nice card. This property is in the middle of a business park and a ways from the Irvine Spectrum.  You have to drive or Lyft if going make a visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>LeAnnAGM, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>This room was used to stay close to friends in the area. It was clean and had a fun layout. It was very dated, but the property is in the middle of a renovation. The pics of how it will look when complete look great in the lobby.The staff was very cordial and even swung by and gave us fruit for the morning with a nice card. This property is in the middle of a business park and a ways from the Irvine Spectrum.  You have to drive or Lyft if going make a visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r488215003-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>488215003</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>LeAnn and breakfast staff outstanding</t>
+  </si>
+  <si>
+    <t>Breakfast staff go out ot their way to help people and privide services with smile.  Front desk staff is also go out of their way to help with smile.  It's family friendly place for any family.  This was my second visit at this hotel and both time services with smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>LeAnnAGM, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded May 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2017</t>
+  </si>
+  <si>
+    <t>Breakfast staff go out ot their way to help people and privide services with smile.  Front desk staff is also go out of their way to help with smile.  It's family friendly place for any family.  This was my second visit at this hotel and both time services with smile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r480565520-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>480565520</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Friendly and comfortable</t>
+  </si>
+  <si>
+    <t>We had a very nice suite with a kitchen &amp; living area and 2 bedrooms. The staff were all so friendly! Everyone went out of their way to accommodate us. Summer, the front desk person was very friendly and even brought us breakfast because we missed the morning breakfast due to over sleeping. Seth went above and beyond when we were leaving. He was cleaning rooms and stopped what he was doing and with a smile helped us bring our luggage to the car. The free breakfast in the morning was delicious, not just breads and coffee but eggs and sausage and fresh fruit, juice, waffles and more! Service was exceptional and the hotel was very clean and comfortable. It's well worth the money spent to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>LeAnnAGM, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>We had a very nice suite with a kitchen &amp; living area and 2 bedrooms. The staff were all so friendly! Everyone went out of their way to accommodate us. Summer, the front desk person was very friendly and even brought us breakfast because we missed the morning breakfast due to over sleeping. Seth went above and beyond when we were leaving. He was cleaning rooms and stopped what he was doing and with a smile helped us bring our luggage to the car. The free breakfast in the morning was delicious, not just breads and coffee but eggs and sausage and fresh fruit, juice, waffles and more! Service was exceptional and the hotel was very clean and comfortable. It's well worth the money spent to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r474284258-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>474284258</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Amazing staff - Very nice place</t>
+  </si>
+  <si>
+    <t>The AGM (LeAnn) and Tara were amazing. A previous reservation at different hotel was not honored and these ladies made a terrible start to a trip, wonderful. They were able to get me the room I needed, completely supportive and ensured my stay was comfortable. The room itself was comfortable, noise level was acceptable and parking was convenient. Plenty or eateries close by and access to freeways was quick.The exemplify the great customer service that I would expect from all Marriott Hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>LeAnnAGM, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>The AGM (LeAnn) and Tara were amazing. A previous reservation at different hotel was not honored and these ladies made a terrible start to a trip, wonderful. They were able to get me the room I needed, completely supportive and ensured my stay was comfortable. The room itself was comfortable, noise level was acceptable and parking was convenient. Plenty or eateries close by and access to freeways was quick.The exemplify the great customer service that I would expect from all Marriott Hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r462104215-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>462104215</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Comfort!</t>
+  </si>
+  <si>
+    <t>We have stayed at a few places in this area. This was the best bang for the buck!  Free parking, breakfast included (Hot food, fresh fruit, cereal, etc), coffee machine (avail at all hours), comfortable clean rooms, and friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>LeAnnAGM, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed at a few places in this area. This was the best bang for the buck!  Free parking, breakfast included (Hot food, fresh fruit, cereal, etc), coffee machine (avail at all hours), comfortable clean rooms, and friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r460541211-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>460541211</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Great place, Great people</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel for quite some time and since day one, the staff at the Residence Inn have been helpful and very accommodating. If I ever have any issues, very few, they do their best to solve it immediately.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>LeAnnAGM, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded February 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2017</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel for quite some time and since day one, the staff at the Residence Inn have been helpful and very accommodating. If I ever have any issues, very few, they do their best to solve it immediately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r455189107-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>455189107</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Easy, comfortable home away from home</t>
+  </si>
+  <si>
+    <t>Stayed 8 days in one-bedroom studio-type unit.  Place is a bit dated, as others have noted, but very adequate and clean. Asked to be moved to upstairs unit to avoid noise overhead although there are no elevators so expect to lug suitcases up two flights. I also requested a side chair as there is just one sofa, which is awkward for guests. Was quickly accommodated in both cases and they offered to transport my luggage! Breakfasts are amazing and varied!  Staff, Especially manager Elizabeth Kelleher, is very friendly and helpful. Safe area.  Easy access anywhere. Will stay here again next month when I return.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>LeAnnAGM, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded January 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2017</t>
+  </si>
+  <si>
+    <t>Stayed 8 days in one-bedroom studio-type unit.  Place is a bit dated, as others have noted, but very adequate and clean. Asked to be moved to upstairs unit to avoid noise overhead although there are no elevators so expect to lug suitcases up two flights. I also requested a side chair as there is just one sofa, which is awkward for guests. Was quickly accommodated in both cases and they offered to transport my luggage! Breakfasts are amazing and varied!  Staff, Especially manager Elizabeth Kelleher, is very friendly and helpful. Safe area.  Easy access anywhere. Will stay here again next month when I return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r424506343-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>424506343</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Nice, Quiet Property</t>
+  </si>
+  <si>
+    <t>We stayed here for one night to go see a concert. This hotel is conveniently located fairly close to many things to do in the Orange County area. The area itself is more located in an industrial park, but it's quiet. We were on the 2nd floor (had to go up a flight of stairs) and the suite was clean and nice. We had a kitchen area and a little living room area. Breakfast was nice. It has parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for one night to go see a concert. This hotel is conveniently located fairly close to many things to do in the Orange County area. The area itself is more located in an industrial park, but it's quiet. We were on the 2nd floor (had to go up a flight of stairs) and the suite was clean and nice. We had a kitchen area and a little living room area. Breakfast was nice. It has parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r419938871-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>419938871</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>not good value for money, staff did not know basic things, room old, smelled mould</t>
+  </si>
+  <si>
+    <t>The staff did not know basic things like how we connect to the Internet, how the printer worked, took a lot of time to check in, only the man who served breakfast was helpful. The room was old and not well airconditioned, did have anywhere fresh air could come in only a small door, smelled of mould. It was serviced though. Hotel expensive for what it offeredMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>The staff did not know basic things like how we connect to the Internet, how the printer worked, took a lot of time to check in, only the man who served breakfast was helpful. The room was old and not well airconditioned, did have anywhere fresh air could come in only a small door, smelled of mould. It was serviced though. Hotel expensive for what it offeredMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r415469433-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>415469433</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Awesome service, Friendly Staff</t>
+  </si>
+  <si>
+    <t>My family stayed 2 nights at this location because our house was undergoing repair.  The staff is extremely helpful and a real pleasure.  During the evenings this hotel offers a happy hour selection.  My 3 year old son and I can a little bit early before the happy hour.  With all 3 year old kids, he couldn't wait.  The front staff - Jessica, Laura, and Leann were super nice.  They provided a special snack for my kids and went out of their way to do this.During our stay we asked for extra towels and Aaron responded immediately.  Even though the property is spaced out a bit, he showed up within 5 minutes.  The service and team at this location made the experience awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>My family stayed 2 nights at this location because our house was undergoing repair.  The staff is extremely helpful and a real pleasure.  During the evenings this hotel offers a happy hour selection.  My 3 year old son and I can a little bit early before the happy hour.  With all 3 year old kids, he couldn't wait.  The front staff - Jessica, Laura, and Leann were super nice.  They provided a special snack for my kids and went out of their way to do this.During our stay we asked for extra towels and Aaron responded immediately.  Even though the property is spaced out a bit, he showed up within 5 minutes.  The service and team at this location made the experience awesome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r386972096-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>386972096</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Well run and maintained</t>
+  </si>
+  <si>
+    <t>This Inn is located in a light industrial area with many office parks nearby. The staff is polite and efficient. the breakfast is well prepared with a nice variety each day. The Mixer offers typical fare. There is no store within walking distance so plan ahead.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>This Inn is located in a light industrial area with many office parks nearby. The staff is polite and efficient. the breakfast is well prepared with a nice variety each day. The Mixer offers typical fare. There is no store within walking distance so plan ahead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r380935772-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>380935772</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>New and clean</t>
+  </si>
+  <si>
+    <t>The Residence Inn is a extended stay style hotel, with a kitchen, full sized fridge in the room. The room we stayed in looked newly renovated with clean carpets and new furniture and was very clean. The hotel also offers free complimentary hot breakfast (not just continental breakfast). The hotel also has free parking and a small pool and gym. I recommend this place to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2016</t>
+  </si>
+  <si>
+    <t>The Residence Inn is a extended stay style hotel, with a kitchen, full sized fridge in the room. The room we stayed in looked newly renovated with clean carpets and new furniture and was very clean. The hotel also offers free complimentary hot breakfast (not just continental breakfast). The hotel also has free parking and a small pool and gym. I recommend this place to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r380594709-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>380594709</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Clean, convenient and a great location for a Verizon concert</t>
+  </si>
+  <si>
+    <t>Decided to head down to Irvine for a concert at Verizon amphitheater and needed a place to stay. Did a little research and chose The R.I. Spectrum only 2 miles from the venue.   We were very pleased with the decision. A smallish room with a large kitchenette and work station. a sitting area with small foldout couch , chair and working wood fireplace. A comfy bed , a dressing area with ample counter space and tub/shower enclosure with a pocket door. Clean and well kept ,everything you need for a comfortable stay.   Among the amenities are a smallish pool with handicapped lift , tables and chairs with umbrellas and a large gas grill. The grounds are well maintained and there is ample parking around the entire property. The check in offers computer access a small "market" with a limited amount of beverages including wine and incidentals.  One of the highlights of a stay here is the free breakfast. It is a full buffet self serve breakfast including eggs,sausage,potatoes ,bagels, bread , fruit juice , coffee and a self make waffle bar. Seating can be limited if it is a busy morning and there seats outside as well.  Special shout out to the exceptional staff Audri and Aaron and all others we encountered including the polite housekeepers.  All in all a great place for a overnight stay or and extended visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Decided to head down to Irvine for a concert at Verizon amphitheater and needed a place to stay. Did a little research and chose The R.I. Spectrum only 2 miles from the venue.   We were very pleased with the decision. A smallish room with a large kitchenette and work station. a sitting area with small foldout couch , chair and working wood fireplace. A comfy bed , a dressing area with ample counter space and tub/shower enclosure with a pocket door. Clean and well kept ,everything you need for a comfortable stay.   Among the amenities are a smallish pool with handicapped lift , tables and chairs with umbrellas and a large gas grill. The grounds are well maintained and there is ample parking around the entire property. The check in offers computer access a small "market" with a limited amount of beverages including wine and incidentals.  One of the highlights of a stay here is the free breakfast. It is a full buffet self serve breakfast including eggs,sausage,potatoes ,bagels, bread , fruit juice , coffee and a self make waffle bar. Seating can be limited if it is a busy morning and there seats outside as well.  Special shout out to the exceptional staff Audri and Aaron and all others we encountered including the polite housekeepers.  All in all a great place for a overnight stay or and extended visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r350700095-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>350700095</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Older but a great place </t>
+  </si>
+  <si>
+    <t>This is a great hotel with a great location. It is older but there are many features that make it a very good place to stay. The hotel staff was very friendly and very helpful. Handicap rooms have smaller beds than other rooms so if you don't need a handicap room you get a bigger bedMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded February 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2016</t>
+  </si>
+  <si>
+    <t>This is a great hotel with a great location. It is older but there are many features that make it a very good place to stay. The hotel staff was very friendly and very helpful. Handicap rooms have smaller beds than other rooms so if you don't need a handicap room you get a bigger bedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r335313251-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>335313251</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>Business trip review (need to include espressos in the breakfast)</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for more than 4 months due to a prolonged business trip to California. Even though my review states that I was there in January 2015 I must rectify it saying that I was there in 2012. I find very difficult that my review will be outdated.
+I will start saying that if you plan a short stay in Irvine and will not spend the weekend you should check the Courtyard Marriott or other hotels close to Irvine Spectrum. When I say close I mean at a walking distance. Especially if you like a good beer... You can enjoy more than 200 varieties in the Yard house Restaurant and walk back to your hotel room without a DUI. If that is not the case then I can certainly vouch for the Marriott Residence Inn.
+Excellent Location. (For business) - Very close to most of the big companies in the OC area. Some at a walking distance.
+Attractions - near Irvine Spectrum where you can find a fine selection of restaurants a good movie theater.
+Less than 1 hour drive to great beaches in Southern California area.
+Restaurant - there is no restaurant in the Hotel.
+Breakfast - No espressos...(this should be improved). Typical breakfast of American Hotels with waffles, yogurt, juices and stuff...
+Amenities - There is a loundry area where you can put your clothes to wash and dry. Pool area (where a happy hour...I stayed in this hotel for more than 4 months due to a prolonged business trip to California. Even though my review states that I was there in January 2015 I must rectify it saying that I was there in 2012. I find very difficult that my review will be outdated.I will start saying that if you plan a short stay in Irvine and will not spend the weekend you should check the Courtyard Marriott or other hotels close to Irvine Spectrum. When I say close I mean at a walking distance. Especially if you like a good beer... You can enjoy more than 200 varieties in the Yard house Restaurant and walk back to your hotel room without a DUI. If that is not the case then I can certainly vouch for the Marriott Residence Inn.Excellent Location. (For business) - Very close to most of the big companies in the OC area. Some at a walking distance.Attractions - near Irvine Spectrum where you can find a fine selection of restaurants a good movie theater.Less than 1 hour drive to great beaches in Southern California area.Restaurant - there is no restaurant in the Hotel.Breakfast - No espressos...(this should be improved). Typical breakfast of American Hotels with waffles, yogurt, juices and stuff...Amenities - There is a loundry area where you can put your clothes to wash and dry. Pool area (where a happy hour with pizza, burgers and free beer is available everyday around 17:00). There is also a good Gym with air-conditioning.The Hotel is child-friendly so if you are concerned with noise get a room far from the pool area.The staff is very friendly.Easy to park without additional fees.There is also a very small deli at the reception.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2015</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for more than 4 months due to a prolonged business trip to California. Even though my review states that I was there in January 2015 I must rectify it saying that I was there in 2012. I find very difficult that my review will be outdated.
+I will start saying that if you plan a short stay in Irvine and will not spend the weekend you should check the Courtyard Marriott or other hotels close to Irvine Spectrum. When I say close I mean at a walking distance. Especially if you like a good beer... You can enjoy more than 200 varieties in the Yard house Restaurant and walk back to your hotel room without a DUI. If that is not the case then I can certainly vouch for the Marriott Residence Inn.
+Excellent Location. (For business) - Very close to most of the big companies in the OC area. Some at a walking distance.
+Attractions - near Irvine Spectrum where you can find a fine selection of restaurants a good movie theater.
+Less than 1 hour drive to great beaches in Southern California area.
+Restaurant - there is no restaurant in the Hotel.
+Breakfast - No espressos...(this should be improved). Typical breakfast of American Hotels with waffles, yogurt, juices and stuff...
+Amenities - There is a loundry area where you can put your clothes to wash and dry. Pool area (where a happy hour...I stayed in this hotel for more than 4 months due to a prolonged business trip to California. Even though my review states that I was there in January 2015 I must rectify it saying that I was there in 2012. I find very difficult that my review will be outdated.I will start saying that if you plan a short stay in Irvine and will not spend the weekend you should check the Courtyard Marriott or other hotels close to Irvine Spectrum. When I say close I mean at a walking distance. Especially if you like a good beer... You can enjoy more than 200 varieties in the Yard house Restaurant and walk back to your hotel room without a DUI. If that is not the case then I can certainly vouch for the Marriott Residence Inn.Excellent Location. (For business) - Very close to most of the big companies in the OC area. Some at a walking distance.Attractions - near Irvine Spectrum where you can find a fine selection of restaurants a good movie theater.Less than 1 hour drive to great beaches in Southern California area.Restaurant - there is no restaurant in the Hotel.Breakfast - No espressos...(this should be improved). Typical breakfast of American Hotels with waffles, yogurt, juices and stuff...Amenities - There is a loundry area where you can put your clothes to wash and dry. Pool area (where a happy hour with pizza, burgers and free beer is available everyday around 17:00). There is also a good Gym with air-conditioning.The Hotel is child-friendly so if you are concerned with noise get a room far from the pool area.The staff is very friendly.Easy to park without additional fees.There is also a very small deli at the reception.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r330538990-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>330538990</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>Stayed for 6 nights on points from our Marriot cards....Thanks Marriott!!! We found the rooms to be very comfortable with plenty of seating to watch TV and a full kitchen. We only used the fridge and coffee maker but it was nice to have. The bed was just the right firmness and we both slept really good. We were on the first floor (2 stories) and could hear a little noise from upstairs but it was not an issue. Overall we really enjoyed our stay. The staff was very friendly and when we got back late one night I asked for cookies from the social mixer earlier in the evening and was handed a couple of delicious fresh cookies. Would be great for a business traveler and worked well for us visiting our daughter who is a student at ChapmanMoreShow less</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for 6 nights on points from our Marriot cards....Thanks Marriott!!! We found the rooms to be very comfortable with plenty of seating to watch TV and a full kitchen. We only used the fridge and coffee maker but it was nice to have. The bed was just the right firmness and we both slept really good. We were on the first floor (2 stories) and could hear a little noise from upstairs but it was not an issue. Overall we really enjoyed our stay. The staff was very friendly and when we got back late one night I asked for cookies from the social mixer earlier in the evening and was handed a couple of delicious fresh cookies. Would be great for a business traveler and worked well for us visiting our daughter who is a student at ChapmanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r311311453-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>311311453</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>because of my job I try to stay at places that can make my stay very comfortable so this hotel is the place when you are at this area for business, and if you are hungry then , many places to choose, I like itMoreShow less</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2015</t>
+  </si>
+  <si>
+    <t>because of my job I try to stay at places that can make my stay very comfortable so this hotel is the place when you are at this area for business, and if you are hungry then , many places to choose, I like itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r303101788-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>303101788</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Ex ++   Ferris Wheel at the  Irvine Spectrum Center, Quality Breakfast &amp; spacious rooms</t>
+  </si>
+  <si>
+    <t>Gabby and Mariah Residence Inn Marriott hostesses provide excellent ++  customer service. a word of caution for families with young children, this is a  country environment  and is thus subject to  insects entering the rooms from the shrubs and bushes surrounding the footprint of the building.    Leann Doherty, Residence Inn Marriot operations manager told me that  due to country environs the  exterior bushes and shrubs are treated by  professional exterminators on a regular basis.The rooms are spacious and the $ 177 weekend rate is hard to beat in this location.Ask Gabby and Mariah,  about all the special  locations in Lake Forest don't forget to visit the Irvine Spectrum Center , a High End Fashion Mall with a  high Ferris Wheeland many restaurants at trhe center.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded August 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2015</t>
+  </si>
+  <si>
+    <t>Gabby and Mariah Residence Inn Marriott hostesses provide excellent ++  customer service. a word of caution for families with young children, this is a  country environment  and is thus subject to  insects entering the rooms from the shrubs and bushes surrounding the footprint of the building.    Leann Doherty, Residence Inn Marriot operations manager told me that  due to country environs the  exterior bushes and shrubs are treated by  professional exterminators on a regular basis.The rooms are spacious and the $ 177 weekend rate is hard to beat in this location.Ask Gabby and Mariah,  about all the special  locations in Lake Forest don't forget to visit the Irvine Spectrum Center , a High End Fashion Mall with a  high Ferris Wheeland many restaurants at trhe center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r301656237-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>301656237</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Good for a Business Trip</t>
+  </si>
+  <si>
+    <t>The room was clean and quiet. This was everything I needed for a business trip. It was easy to access, but nothing around within walking distance. There were plenty of places with sidewalks to run however.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded August 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2015</t>
+  </si>
+  <si>
+    <t>The room was clean and quiet. This was everything I needed for a business trip. It was easy to access, but nothing around within walking distance. There were plenty of places with sidewalks to run however.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r282091762-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>282091762</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Overall Good Quality for the cost</t>
+  </si>
+  <si>
+    <t>The room was a bit below average for what I have come to expect from Marriott over the years. I was a disappointed that the sleeper sofa had popcorn on it (didn't get) looked at during cleaning. The kitchen floor was dirty and stick on tiles for the lower bathroom were coming off. The gentleman at the desk was very nice and helpful.  I can't say the same for the remaining staff except one other - most of the staff didn't smile, didn't thank me for my business and acted as if the customers were an inconvenience rather than a blessing. There was one gentleman at the breakfast who was very friendly and helpful each morning. The area was great. Close enough to everything and far away for some peace and quiteMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded June 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2015</t>
+  </si>
+  <si>
+    <t>The room was a bit below average for what I have come to expect from Marriott over the years. I was a disappointed that the sleeper sofa had popcorn on it (didn't get) looked at during cleaning. The kitchen floor was dirty and stick on tiles for the lower bathroom were coming off. The gentleman at the desk was very nice and helpful.  I can't say the same for the remaining staff except one other - most of the staff didn't smile, didn't thank me for my business and acted as if the customers were an inconvenience rather than a blessing. There was one gentleman at the breakfast who was very friendly and helpful each morning. The area was great. Close enough to everything and far away for some peace and quiteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r279838308-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>279838308</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Customer Service- EXCELLENT</t>
+  </si>
+  <si>
+    <t>First off, Stephanie took care of us over the phone beforehand and was there with my key waiting for me upon arrival. She showed us where our room was and provided excellent accommodation and services. Secondly, the room itself is far superior to any other hotels in the area. I had a room with a second story and the place could not have been cleaner and in better condition when i showed up. It is obvious the management is very concerned on keeping their guests happy, and I was certainly satisfied. I had no trouble checking in, checking out or any of the billing. I highly recommend staying here and will definitely again soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>First off, Stephanie took care of us over the phone beforehand and was there with my key waiting for me upon arrival. She showed us where our room was and provided excellent accommodation and services. Secondly, the room itself is far superior to any other hotels in the area. I had a room with a second story and the place could not have been cleaner and in better condition when i showed up. It is obvious the management is very concerned on keeping their guests happy, and I was certainly satisfied. I had no trouble checking in, checking out or any of the billing. I highly recommend staying here and will definitely again soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r278482216-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>278482216</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, friendly, and peaceful place to stay</t>
+  </si>
+  <si>
+    <t>Located within a very quiet office park area, this hotel has comfortable rooms, a very nice and helpful staff, attractive and nicely landscaped grounds, a decent breakfast, and has evening activities for guests on some nights.  There is also a clean pool and jacuzzi, tennis courts, and a small fitness center.  The hotel is about about a 5 minute drive (or 45 minute walk) from the Irvine Spectrum Center shopping area; the closest airport is Santa Anna (a.k.a., John Wayne, Orange County, SNA), about 11 miles (15-20 minute drive).  Oh, and the nearest Starbucks is a little under a mile away (~20 minute walk).  Overall, this is a very comfortable, pleasant, and friendly place to stay -- a little off the beaten path and still very convenient to most of the Irvine area.MoreShow less</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Located within a very quiet office park area, this hotel has comfortable rooms, a very nice and helpful staff, attractive and nicely landscaped grounds, a decent breakfast, and has evening activities for guests on some nights.  There is also a clean pool and jacuzzi, tennis courts, and a small fitness center.  The hotel is about about a 5 minute drive (or 45 minute walk) from the Irvine Spectrum Center shopping area; the closest airport is Santa Anna (a.k.a., John Wayne, Orange County, SNA), about 11 miles (15-20 minute drive).  Oh, and the nearest Starbucks is a little under a mile away (~20 minute walk).  Overall, this is a very comfortable, pleasant, and friendly place to stay -- a little off the beaten path and still very convenient to most of the Irvine area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r269701879-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>269701879</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Aaaaaaamazing customer service!!!</t>
+  </si>
+  <si>
+    <t>Really cute hotel in a quiet area. Beds are super comfy and best of all... Stephanie, one of the front desk agents is AAAAAAAMAZING!!!!! She is super nice, engaging, and thoughtful. We shared a story with her about another stay, and she went the EXTRA hundred miles to make up for a bad experience that didn't involve her or her property and really made our day and our stay. Fantastic experience and what a great person to represent her property and company. Way to go!!!!THANK YOU STEPHANIE!   ;)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Really cute hotel in a quiet area. Beds are super comfy and best of all... Stephanie, one of the front desk agents is AAAAAAAMAZING!!!!! She is super nice, engaging, and thoughtful. We shared a story with her about another stay, and she went the EXTRA hundred miles to make up for a bad experience that didn't involve her or her property and really made our day and our stay. Fantastic experience and what a great person to represent her property and company. Way to go!!!!THANK YOU STEPHANIE!   ;)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r264942462-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>264942462</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>Short Stay in Irvine</t>
+  </si>
+  <si>
+    <t>We were here for two nights as part of group of 15 of us to attend a wedding nearby. Very nice and spacious rooms fully equipped kitchenette with dining table and sitting area with sofas which converted into beds at night. We were with our two kids who comfortable slept in the sofa cum beds and the room was spacious enough for four of us not to feel claustrophobic at all. Meal facilities were limited to the breakfast in the restaurant in the morning which came complementary. The breakfast spread was quite generous and good. The hotel had a small pool and a tennis court too. Also equipped with a self service launderette. Being located in a industrial area not much to do nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded April 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2015</t>
+  </si>
+  <si>
+    <t>We were here for two nights as part of group of 15 of us to attend a wedding nearby. Very nice and spacious rooms fully equipped kitchenette with dining table and sitting area with sofas which converted into beds at night. We were with our two kids who comfortable slept in the sofa cum beds and the room was spacious enough for four of us not to feel claustrophobic at all. Meal facilities were limited to the breakfast in the restaurant in the morning which came complementary. The breakfast spread was quite generous and good. The hotel had a small pool and a tennis court too. Also equipped with a self service launderette. Being located in a industrial area not much to do nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r264780040-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>264780040</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>Enjoyable stay, good ambiance...</t>
+  </si>
+  <si>
+    <t>Residence Inn was a good experience.  The rooms are spacious, ours also had a mini kitchenette.  While we didn't get to use that, it was good to have some options given this is an expensive neighborhood.  In a hotel, one looks for comfort, amenities, and cleanliness - all areas were very well thought through.  While this was not extremely luxurious, it was sufficiently well serviced to not miss anything.  The property is small, so you are not going to have many places to hang out except the lobby and the outdoor patio.  Breakfast was ok, could use more options.  And longer window, 7am - 9am is really very short a window for so many guests to be able to relax and eat without feeling too rushed.It has a swimming pool and an outdoor fireplace, very cool!We will definitely go back should our travels take us there, and highly recommend it as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Residence Inn was a good experience.  The rooms are spacious, ours also had a mini kitchenette.  While we didn't get to use that, it was good to have some options given this is an expensive neighborhood.  In a hotel, one looks for comfort, amenities, and cleanliness - all areas were very well thought through.  While this was not extremely luxurious, it was sufficiently well serviced to not miss anything.  The property is small, so you are not going to have many places to hang out except the lobby and the outdoor patio.  Breakfast was ok, could use more options.  And longer window, 7am - 9am is really very short a window for so many guests to be able to relax and eat without feeling too rushed.It has a swimming pool and an outdoor fireplace, very cool!We will definitely go back should our travels take us there, and highly recommend it as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r244798736-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>244798736</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>Nice location, friendly staff</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and the staff is extremely friendly.  It is conveniently located, but pretty quiet.  They have an upgraded coffee maker - Douwe Egbert - GREAT coffee.  Definitely stay here if you have business in Irvine.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded December 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and the staff is extremely friendly.  It is conveniently located, but pretty quiet.  They have an upgraded coffee maker - Douwe Egbert - GREAT coffee.  Definitely stay here if you have business in Irvine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r242195726-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>242195726</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful stuff, spacious and clean room-- but really bad bug bite problem</t>
+  </si>
+  <si>
+    <t>I want to give this place a 3.5 star rating. Stuffs were extremely friendly and helpful.  Food was also reasonable and room was spacious and well-maintained. Leana worth special mentioning.  She was a awesome manager who took good care of me at my visit. So why the 3.5?  The problem is with the bugs!  My family got numerous bug bites on the facility.  Not sure if I got bitten in the courtyard or in the room.  I complained to the front desk, and she offered me itch-numbing cream (really nice of her, but I prefer no bug bites, it's not humid Florida in Summer, but a cool day in CA).      Another issue is the place is not in a walk-able distance to Irvine Spectrum (2.5 miles is not walk-able for me).  Instead, it's located in the middle of a office park... far away from any kind of amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>I want to give this place a 3.5 star rating. Stuffs were extremely friendly and helpful.  Food was also reasonable and room was spacious and well-maintained. Leana worth special mentioning.  She was a awesome manager who took good care of me at my visit. So why the 3.5?  The problem is with the bugs!  My family got numerous bug bites on the facility.  Not sure if I got bitten in the courtyard or in the room.  I complained to the front desk, and she offered me itch-numbing cream (really nice of her, but I prefer no bug bites, it's not humid Florida in Summer, but a cool day in CA).      Another issue is the place is not in a walk-able distance to Irvine Spectrum (2.5 miles is not walk-able for me).  Instead, it's located in the middle of a office park... far away from any kind of amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r237210809-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>237210809</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Hmm..rooms are good and clean</t>
+  </si>
+  <si>
+    <t>The staff have less knowledge about tourist areas..less helpfull and need to be trained...the breakfast is very limited and in a small area..it is like appartments and stairs..non availability of elevator and you have to carry you laggage by stairs ..no shops or gas station close by.you need to have a car.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded October 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2014</t>
+  </si>
+  <si>
+    <t>The staff have less knowledge about tourist areas..less helpfull and need to be trained...the breakfast is very limited and in a small area..it is like appartments and stairs..non availability of elevator and you have to carry you laggage by stairs ..no shops or gas station close by.you need to have a car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r225306099-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>225306099</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>Great property and excellent stay in Irvine</t>
+  </si>
+  <si>
+    <t>We stayed in a penthouse suite for 25 nights from 29-July-2014 to 23-August-2014 and thoroughly enjoyed our stay. Good hotel for families with children. Location: close to Irvine spectrum Mall and WalMart (about 3 miles), close to I-5 and I-405. Facilities: free internet, free public parking, free computer with printer in the lobby area, coins laundry. Free breakfast and in Monday, Tuesday, and Wednesday there is light meal at night. Our suite is very clean. Hotel staff: are friendly and helpful. Price is high.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>We stayed in a penthouse suite for 25 nights from 29-July-2014 to 23-August-2014 and thoroughly enjoyed our stay. Good hotel for families with children. Location: close to Irvine spectrum Mall and WalMart (about 3 miles), close to I-5 and I-405. Facilities: free internet, free public parking, free computer with printer in the lobby area, coins laundry. Free breakfast and in Monday, Tuesday, and Wednesday there is light meal at night. Our suite is very clean. Hotel staff: are friendly and helpful. Price is high.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r222030537-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>222030537</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Not the best location but good hotel.</t>
+  </si>
+  <si>
+    <t>Good shower, the bed was ok for comfort. Free breakfast and during the week light meal at night.. There is a kitchen in the rooms. There is a free computer with printer in the lobby area. There is a pool &amp; hot tub outside. There are not many ammenties in the area. John Wayne airport is about 20 minutes away. Close to Spectrum Mall 3 miles.MoreShow less</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Good shower, the bed was ok for comfort. Free breakfast and during the week light meal at night.. There is a kitchen in the rooms. There is a free computer with printer in the lobby area. There is a pool &amp; hot tub outside. There are not many ammenties in the area. John Wayne airport is about 20 minutes away. Close to Spectrum Mall 3 miles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r216922952-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>216922952</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Great property in Irvine</t>
+  </si>
+  <si>
+    <t>We LOVED this Residence Inn, Irvine Spectrum.  We stayed 12-14JULY 2014 and thoroughly enjoyed our stay.  They upgraded us to a penthouse suite, and our 18 yr old son was thrilled at having a nice queen bed and bathroom, instead of a sleeper sofa!  Their front desk staff are very nice, helpful and professional.  The location is just off of I-5, in a quiet, business-type district of Irvine, not far from the Irvine Spectrum Shopping Center, which offers great restaurants and shopping.  It's close to Lake Forest and Laguna Woods. Their daily breakfast is great and they have a nice pool and amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded July 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2014</t>
+  </si>
+  <si>
+    <t>We LOVED this Residence Inn, Irvine Spectrum.  We stayed 12-14JULY 2014 and thoroughly enjoyed our stay.  They upgraded us to a penthouse suite, and our 18 yr old son was thrilled at having a nice queen bed and bathroom, instead of a sleeper sofa!  Their front desk staff are very nice, helpful and professional.  The location is just off of I-5, in a quiet, business-type district of Irvine, not far from the Irvine Spectrum Shopping Center, which offers great restaurants and shopping.  It's close to Lake Forest and Laguna Woods. Their daily breakfast is great and they have a nice pool and amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r206919419-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>206919419</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>Ok hotel in lake forest</t>
+  </si>
+  <si>
+    <t>We stayed here for a month when we moved to Irvine. The staff were excellent always willing to help, the manager was also very nice and upgraded us to a suite which was great. location is really lake forest and not irvine, mostly industrial and empty offices around though safe.It is close to irvine spectrum. only problem with this hotel is cleanliness and they often forgot to clean up dog poop all around the hotel, this is very much unlike irvine where you will get fined for not cleaning dog waste. Will not recommended this hotel at all because of location and cleanliness.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>LeAnn D, Operation Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for a month when we moved to Irvine. The staff were excellent always willing to help, the manager was also very nice and upgraded us to a suite which was great. location is really lake forest and not irvine, mostly industrial and empty offices around though safe.It is close to irvine spectrum. only problem with this hotel is cleanliness and they often forgot to clean up dog poop all around the hotel, this is very much unlike irvine where you will get fined for not cleaning dog waste. Will not recommended this hotel at all because of location and cleanliness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r201688562-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>201688562</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home away from home </t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this hotel. Quiet, well maintained, well landscaped property. The suites are spacious, clean, modern and great for working. I was able to work in my room with colleagues without feeling like they were in my bedroom. They even have wood burning fireplaces. I would prefer a gas switch, they sell dura flames in the lobby. The breakfast is nice. Not my thing. The happy hour wine beer was nice but the snacks were odd. Always a meat dish ugh. There are no restaurants near by so figure dinner out before settle in. The staff was very helpful!Yes I will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Jay C, Property Coordinator at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2014</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this hotel. Quiet, well maintained, well landscaped property. The suites are spacious, clean, modern and great for working. I was able to work in my room with colleagues without feeling like they were in my bedroom. They even have wood burning fireplaces. I would prefer a gas switch, they sell dura flames in the lobby. The breakfast is nice. Not my thing. The happy hour wine beer was nice but the snacks were odd. Always a meat dish ugh. There are no restaurants near by so figure dinner out before settle in. The staff was very helpful!Yes I will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r199428227-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>199428227</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Needs new manager!</t>
+  </si>
+  <si>
+    <t>Was very excited to stay here with my partner for a little get away close to home. Little did we know that upon check in the manager Leann would be so rude and have horrible communication problems! We spilt the cost and asked her to charge both cards and we would pay the total not only did she mess up but for the 3 days 2 night stay she charged me $120 and my partner $200 for our stay and as the weekend went be i checked my statement she had charged my partner the $200 and I had a charge of $120 twice ($240) then a $30 then by check out a $141.83 thats a total of $411.83 plus my partners $200 thats a total of $611.83 luckily my bank kept my funds and was only processing them or else i would of had no money and over drafted which is ridicules and to top it off as we finish checking in she tells us I see people have checked in from your area so im warning you now no parties or you will get kicked out! What are the chances of us even knowing who these people are! Were here for a getaway if i want to party i have a house for that! She said they were telling all of there guest but 3 other people checked in at the same time we did and she not...Was very excited to stay here with my partner for a little get away close to home. Little did we know that upon check in the manager Leann would be so rude and have horrible communication problems! We spilt the cost and asked her to charge both cards and we would pay the total not only did she mess up but for the 3 days 2 night stay she charged me $120 and my partner $200 for our stay and as the weekend went be i checked my statement she had charged my partner the $200 and I had a charge of $120 twice ($240) then a $30 then by check out a $141.83 thats a total of $411.83 plus my partners $200 thats a total of $611.83 luckily my bank kept my funds and was only processing them or else i would of had no money and over drafted which is ridicules and to top it off as we finish checking in she tells us I see people have checked in from your area so im warning you now no parties or you will get kicked out! What are the chances of us even knowing who these people are! Were here for a getaway if i want to party i have a house for that! She said they were telling all of there guest but 3 other people checked in at the same time we did and she not once told them anything! Besides all of that the rooms are clean and comfortable but because of the manager being rude and pointing us out for some reason I will never stay there again there job is to make you feel welcomed not to check in and ruin your stay on your first day there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jay C, Property Coordinator at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Was very excited to stay here with my partner for a little get away close to home. Little did we know that upon check in the manager Leann would be so rude and have horrible communication problems! We spilt the cost and asked her to charge both cards and we would pay the total not only did she mess up but for the 3 days 2 night stay she charged me $120 and my partner $200 for our stay and as the weekend went be i checked my statement she had charged my partner the $200 and I had a charge of $120 twice ($240) then a $30 then by check out a $141.83 thats a total of $411.83 plus my partners $200 thats a total of $611.83 luckily my bank kept my funds and was only processing them or else i would of had no money and over drafted which is ridicules and to top it off as we finish checking in she tells us I see people have checked in from your area so im warning you now no parties or you will get kicked out! What are the chances of us even knowing who these people are! Were here for a getaway if i want to party i have a house for that! She said they were telling all of there guest but 3 other people checked in at the same time we did and she not...Was very excited to stay here with my partner for a little get away close to home. Little did we know that upon check in the manager Leann would be so rude and have horrible communication problems! We spilt the cost and asked her to charge both cards and we would pay the total not only did she mess up but for the 3 days 2 night stay she charged me $120 and my partner $200 for our stay and as the weekend went be i checked my statement she had charged my partner the $200 and I had a charge of $120 twice ($240) then a $30 then by check out a $141.83 thats a total of $411.83 plus my partners $200 thats a total of $611.83 luckily my bank kept my funds and was only processing them or else i would of had no money and over drafted which is ridicules and to top it off as we finish checking in she tells us I see people have checked in from your area so im warning you now no parties or you will get kicked out! What are the chances of us even knowing who these people are! Were here for a getaway if i want to party i have a house for that! She said they were telling all of there guest but 3 other people checked in at the same time we did and she not once told them anything! Besides all of that the rooms are clean and comfortable but because of the manager being rude and pointing us out for some reason I will never stay there again there job is to make you feel welcomed not to check in and ruin your stay on your first day there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r191001332-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>191001332</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Receptionist was on the call for more than 10-15 mins and then bothered to check in us in the evening around 8 pm.Usually the residence inns are a good place to stay with family. This one was just average for the rate paid  per night. I will stay at a different Marriott next time!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Jay C, Property Coordinator at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded January 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2014</t>
+  </si>
+  <si>
+    <t>Receptionist was on the call for more than 10-15 mins and then bothered to check in us in the evening around 8 pm.Usually the residence inns are a good place to stay with family. This one was just average for the rate paid  per night. I will stay at a different Marriott next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r188905491-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>188905491</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>They allow pets!</t>
+  </si>
+  <si>
+    <t>We have stayed here for many years, the service is great &amp; friendly. It is located in a quiet industrial area that's close to the freeways &amp; shopping. And there are not many places that are pet friendly anymore with plenty of surrounding areas to walk your dogs. We love it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r187117636-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>187117636</t>
+  </si>
+  <si>
+    <t>12/08/2013</t>
+  </si>
+  <si>
+    <t>Pretty good overall, although I was in pricier 'suite'</t>
+  </si>
+  <si>
+    <t>Overall, this hotel was pretty good.Ideally located for technology park in Irvine, the hotel was pretty good.Check in staff were very helpful, advising me that I had the chance to make the evening buffet (as part of my room rate). Buffet was OK, but probably not going to satisfy anyone with an appetite.Suite was very good indeed - loads of room and well furnished (including a full kitchen area, and a very useful desk / work area).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r179289966-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>179289966</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Great little place!</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise to find this cute little place off the main road.  Upon check in, we were greeted by a cute friendly red head... "Morgan". Very kind and accomodating.  She went out of her way to make sure we got the room we had requested.  My mom is handicap and Morgan called our room to make sure my mom got to the room with no problems.  What great service!!!!!!When we got to our room, we were so pleasantly surprised to find such a beautiful room with living room, kitchen, bedroom &amp; bathroom downstairs and a nice loft upstairs with a bed &amp; bathroom.  The beds were so comfortable as the whole room was. The breakfast area was very nice as well with lots of great choices for breakfast! Again, we were greeted by the cute red head "Morgan" and her friendly smile and her kindness!!!!! Again, she went out of her way to make sure we had everything we needed!  Being in the customer service field, this hotel is very lucky to have such a wonderful employee representing their hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>LeAnn D, Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded October 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2013</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise to find this cute little place off the main road.  Upon check in, we were greeted by a cute friendly red head... "Morgan". Very kind and accomodating.  She went out of her way to make sure we got the room we had requested.  My mom is handicap and Morgan called our room to make sure my mom got to the room with no problems.  What great service!!!!!!When we got to our room, we were so pleasantly surprised to find such a beautiful room with living room, kitchen, bedroom &amp; bathroom downstairs and a nice loft upstairs with a bed &amp; bathroom.  The beds were so comfortable as the whole room was. The breakfast area was very nice as well with lots of great choices for breakfast! Again, we were greeted by the cute red head "Morgan" and her friendly smile and her kindness!!!!! Again, she went out of her way to make sure we had everything we needed!  Being in the customer service field, this hotel is very lucky to have such a wonderful employee representing their hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r174044460-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>174044460</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Always Consistently Good!</t>
+  </si>
+  <si>
+    <t>The Residence Inns that we have stayed at over the years have been very consistent in their quality and service.  That is one of the main reasons that when we get a chance to stay at them, we do.  We know what we are getting.  We will continue to visit and stay with them whether it's at this particular address or their many other locations as well. Thanks for being there for us whether it be for vacation or work related!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>IrvineSpectrum, General Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded October 15, 2013</t>
+  </si>
+  <si>
+    <t>The Residence Inns that we have stayed at over the years have been very consistent in their quality and service.  That is one of the main reasons that when we get a chance to stay at them, we do.  We know what we are getting.  We will continue to visit and stay with them whether it's at this particular address or their many other locations as well. Thanks for being there for us whether it be for vacation or work related!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r169190424-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>169190424</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Decent enough place only one complaint. Smoke area by pool....</t>
+  </si>
+  <si>
+    <t>The mail area that smokers sit and where an ashtray is located is about 15 feet from the spa and pool. It really made the experience unpleasant during our stay. Otherwise the room was nice enough and the staff at the front desk were great.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>The mail area that smokers sit and where an ashtray is located is about 15 feet from the spa and pool. It really made the experience unpleasant during our stay. Otherwise the room was nice enough and the staff at the front desk were great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r151707585-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>151707585</t>
+  </si>
+  <si>
+    <t>02/08/2013</t>
+  </si>
+  <si>
+    <t>Amenities Galore</t>
+  </si>
+  <si>
+    <t>Wonderful amenities in our room - all new kitchen appliances and new furniture, decor, etc.  Felt like we were the first guests to stay in this suite.  However, not much soundproofing - we heard the guests walking around on the 2nd floor which disrupted our sleep in an otherwise comfortable, quiet environment.  The breakfast is a real plus!  Customer service was average....MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>IrvineSpectrum, General Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded February 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2013</t>
+  </si>
+  <si>
+    <t>Wonderful amenities in our room - all new kitchen appliances and new furniture, decor, etc.  Felt like we were the first guests to stay in this suite.  However, not much soundproofing - we heard the guests walking around on the 2nd floor which disrupted our sleep in an otherwise comfortable, quiet environment.  The breakfast is a real plus!  Customer service was average....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r148149898-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>148149898</t>
+  </si>
+  <si>
+    <t>12/27/2012</t>
+  </si>
+  <si>
+    <t>Very Nice Accomodation with a Few Problems</t>
+  </si>
+  <si>
+    <t>My family booked two rooms for a few days during the Christmas season. With a couple of exceptions, the facility is excellent.  It is well located for access to nearby attractions such as the Laguna beaches and Disneyland as well as the John Wayne airport.  Rooms were well laid out - except the back to back accordian doors to two closets.We appreciated the full size fridge and dish washer.   Most all utensils one would need for such a stay were provided (plenty of wine glasses).  WiFi speed was slow but useable.We found the food good and enjoyed the evening meal. Unfortunately, on at least one breakfast, the single attendant could not keep up with everything (on another morning, a desk staff member had been assigned to assist which improved the situation).  As noted by several other reviewers the seating area for a facility this size was very much undersized.  For most of the year this is probably not a problem as outdoor seating is also available but for several cold, rainy December days, it was.Also, as noted by others, their seemed to be a lack of sound insulation between floors.  We could easily hear a creaking board from the room above.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>LeAnn D, Public Relations Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded February 14, 2013</t>
+  </si>
+  <si>
+    <t>My family booked two rooms for a few days during the Christmas season. With a couple of exceptions, the facility is excellent.  It is well located for access to nearby attractions such as the Laguna beaches and Disneyland as well as the John Wayne airport.  Rooms were well laid out - except the back to back accordian doors to two closets.We appreciated the full size fridge and dish washer.   Most all utensils one would need for such a stay were provided (plenty of wine glasses).  WiFi speed was slow but useable.We found the food good and enjoyed the evening meal. Unfortunately, on at least one breakfast, the single attendant could not keep up with everything (on another morning, a desk staff member had been assigned to assist which improved the situation).  As noted by several other reviewers the seating area for a facility this size was very much undersized.  For most of the year this is probably not a problem as outdoor seating is also available but for several cold, rainy December days, it was.Also, as noted by others, their seemed to be a lack of sound insulation between floors.  We could easily hear a creaking board from the room above.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r148096865-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>148096865</t>
+  </si>
+  <si>
+    <t>12/26/2012</t>
+  </si>
+  <si>
+    <t>Charge hidden fees- do not recommend</t>
+  </si>
+  <si>
+    <t>I was charged an unfair fee, and as a result am very unhappy with my experience here.
+When I made my reservation, I asked if the hotel was pet-friendly, noted that I would be bringing a pet, and asked if there was anything else I needed to know. I was told "no, that's it." There was no information about pet fees given to me on either the phone, or on the website.
+When I checked in on Christmas Eve, I was told that there was a $100 non-refundable pet fee. When I asked why I had not been told this BEFORE my stay, the management acknowledged that that was a mistake, but would not waive the pet fee. The management eventually haggled with me and said I could pay a $50 pet fee. They would not simply waive the fee.
+While this was happening, another customer came to the desk and asked what a $100 charge on her bill was. She was told it was the pet fee. She, too, told the front desk that she had no idea there was any kind of pet fee, until after it appeared on her bill. This makes it seem like the hotel does this repeatedly because it makes them more money to charge when the customer is already there in person.
+It's understandable to charge a pet fee, but to not tell guests about it up front is dishonest and scammy. 
+I'd...I was charged an unfair fee, and as a result am very unhappy with my experience here.When I made my reservation, I asked if the hotel was pet-friendly, noted that I would be bringing a pet, and asked if there was anything else I needed to know. I was told "no, that's it." There was no information about pet fees given to me on either the phone, or on the website.When I checked in on Christmas Eve, I was told that there was a $100 non-refundable pet fee. When I asked why I had not been told this BEFORE my stay, the management acknowledged that that was a mistake, but would not waive the pet fee. The management eventually haggled with me and said I could pay a $50 pet fee. They would not simply waive the fee.While this was happening, another customer came to the desk and asked what a $100 charge on her bill was. She was told it was the pet fee. She, too, told the front desk that she had no idea there was any kind of pet fee, until after it appeared on her bill. This makes it seem like the hotel does this repeatedly because it makes them more money to charge when the customer is already there in person.It's understandable to charge a pet fee, but to not tell guests about it up front is dishonest and scammy. I'd like to note that the woman who checked me in at the front desk was very kind, apologetic and helpful. I very much appreciate all her help. She did all she could to remedy a bad situation that was clearly out of her hands. Unfortunately, the management's tactics made for a terrible experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was charged an unfair fee, and as a result am very unhappy with my experience here.
+When I made my reservation, I asked if the hotel was pet-friendly, noted that I would be bringing a pet, and asked if there was anything else I needed to know. I was told "no, that's it." There was no information about pet fees given to me on either the phone, or on the website.
+When I checked in on Christmas Eve, I was told that there was a $100 non-refundable pet fee. When I asked why I had not been told this BEFORE my stay, the management acknowledged that that was a mistake, but would not waive the pet fee. The management eventually haggled with me and said I could pay a $50 pet fee. They would not simply waive the fee.
+While this was happening, another customer came to the desk and asked what a $100 charge on her bill was. She was told it was the pet fee. She, too, told the front desk that she had no idea there was any kind of pet fee, until after it appeared on her bill. This makes it seem like the hotel does this repeatedly because it makes them more money to charge when the customer is already there in person.
+It's understandable to charge a pet fee, but to not tell guests about it up front is dishonest and scammy. 
+I'd...I was charged an unfair fee, and as a result am very unhappy with my experience here.When I made my reservation, I asked if the hotel was pet-friendly, noted that I would be bringing a pet, and asked if there was anything else I needed to know. I was told "no, that's it." There was no information about pet fees given to me on either the phone, or on the website.When I checked in on Christmas Eve, I was told that there was a $100 non-refundable pet fee. When I asked why I had not been told this BEFORE my stay, the management acknowledged that that was a mistake, but would not waive the pet fee. The management eventually haggled with me and said I could pay a $50 pet fee. They would not simply waive the fee.While this was happening, another customer came to the desk and asked what a $100 charge on her bill was. She was told it was the pet fee. She, too, told the front desk that she had no idea there was any kind of pet fee, until after it appeared on her bill. This makes it seem like the hotel does this repeatedly because it makes them more money to charge when the customer is already there in person.It's understandable to charge a pet fee, but to not tell guests about it up front is dishonest and scammy. I'd like to note that the woman who checked me in at the front desk was very kind, apologetic and helpful. I very much appreciate all her help. She did all she could to remedy a bad situation that was clearly out of her hands. Unfortunately, the management's tactics made for a terrible experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r131621619-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>131621619</t>
+  </si>
+  <si>
+    <t>06/09/2012</t>
+  </si>
+  <si>
+    <t>Good location, friendly staff, but so-so bed and room</t>
+  </si>
+  <si>
+    <t>If you're familiar with Residence Inn properties, you'll recognize this location as the "original" Residence Inn style, with the "house" style buildings surrounding a main "gatehouse," where the lobby, breakfast and fitness center are located.
+I arrived late on my first night of a two-night stay, so although the check-in experience was friendly (with a nice gift for being Marriott Platinum Elite), the parking was tough to come by and the room I received was a bit of a hike from where I had to park. I'm sure the area of town is safe, but I always feel a little leery wandering to my room late at night and outdoors.
+I had a first floor room, which is good when you have a large amount of luggage - the second floor units are only accessible via stairs. The room itself was a nice size and looked clean, but the room had definitely been smoked in and smelled very stale, even though this property is supposed to be smoke-free. I have had this issue at Residence Inn properties in the past - I think people are just very comfortable in these home-like hotels and smoke indoors as they might in their own homes? Bed was harder than what you'd find at a Courtyard Inn or a Marriott, but the bathroom and shower were nice. Plenty of outlets and lighting, room had a charming fireplace and a newly-renovated kitchen with nice countertops...If you're familiar with Residence Inn properties, you'll recognize this location as the "original" Residence Inn style, with the "house" style buildings surrounding a main "gatehouse," where the lobby, breakfast and fitness center are located.I arrived late on my first night of a two-night stay, so although the check-in experience was friendly (with a nice gift for being Marriott Platinum Elite), the parking was tough to come by and the room I received was a bit of a hike from where I had to park. I'm sure the area of town is safe, but I always feel a little leery wandering to my room late at night and outdoors.I had a first floor room, which is good when you have a large amount of luggage - the second floor units are only accessible via stairs. The room itself was a nice size and looked clean, but the room had definitely been smoked in and smelled very stale, even though this property is supposed to be smoke-free. I have had this issue at Residence Inn properties in the past - I think people are just very comfortable in these home-like hotels and smoke indoors as they might in their own homes? Bed was harder than what you'd find at a Courtyard Inn or a Marriott, but the bathroom and shower were nice. Plenty of outlets and lighting, room had a charming fireplace and a newly-renovated kitchen with nice countertops and appliances.I didn't use the fitness center or try out the free breakfast on this visit, but I found the location to be very accessible to not only the SNA airport, but also to Irvine and Lake Forest area restaurants and stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>IrvineSpectrum, General Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded August 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2012</t>
+  </si>
+  <si>
+    <t>If you're familiar with Residence Inn properties, you'll recognize this location as the "original" Residence Inn style, with the "house" style buildings surrounding a main "gatehouse," where the lobby, breakfast and fitness center are located.
+I arrived late on my first night of a two-night stay, so although the check-in experience was friendly (with a nice gift for being Marriott Platinum Elite), the parking was tough to come by and the room I received was a bit of a hike from where I had to park. I'm sure the area of town is safe, but I always feel a little leery wandering to my room late at night and outdoors.
+I had a first floor room, which is good when you have a large amount of luggage - the second floor units are only accessible via stairs. The room itself was a nice size and looked clean, but the room had definitely been smoked in and smelled very stale, even though this property is supposed to be smoke-free. I have had this issue at Residence Inn properties in the past - I think people are just very comfortable in these home-like hotels and smoke indoors as they might in their own homes? Bed was harder than what you'd find at a Courtyard Inn or a Marriott, but the bathroom and shower were nice. Plenty of outlets and lighting, room had a charming fireplace and a newly-renovated kitchen with nice countertops...If you're familiar with Residence Inn properties, you'll recognize this location as the "original" Residence Inn style, with the "house" style buildings surrounding a main "gatehouse," where the lobby, breakfast and fitness center are located.I arrived late on my first night of a two-night stay, so although the check-in experience was friendly (with a nice gift for being Marriott Platinum Elite), the parking was tough to come by and the room I received was a bit of a hike from where I had to park. I'm sure the area of town is safe, but I always feel a little leery wandering to my room late at night and outdoors.I had a first floor room, which is good when you have a large amount of luggage - the second floor units are only accessible via stairs. The room itself was a nice size and looked clean, but the room had definitely been smoked in and smelled very stale, even though this property is supposed to be smoke-free. I have had this issue at Residence Inn properties in the past - I think people are just very comfortable in these home-like hotels and smoke indoors as they might in their own homes? Bed was harder than what you'd find at a Courtyard Inn or a Marriott, but the bathroom and shower were nice. Plenty of outlets and lighting, room had a charming fireplace and a newly-renovated kitchen with nice countertops and appliances.I didn't use the fitness center or try out the free breakfast on this visit, but I found the location to be very accessible to not only the SNA airport, but also to Irvine and Lake Forest area restaurants and stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r130954104-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>130954104</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>Nice size bed and cozy room</t>
+  </si>
+  <si>
+    <t>Nice location and convenient. The room is just the right size. There was free dinner and breakfast. Good place to stay  with kids.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>IrvineSpectrum, General Manager at Residence Inn by Marriott Irvine Spectrum, responded to this reviewResponded June 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2012</t>
+  </si>
+  <si>
+    <t>Nice location and convenient. The room is just the right size. There was free dinner and breakfast. Good place to stay  with kids.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r130479519-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>130479519</t>
+  </si>
+  <si>
+    <t>05/23/2012</t>
+  </si>
+  <si>
+    <t>As advertised, standard Marriott option</t>
+  </si>
+  <si>
+    <t>1 bedroom floor unit was clean, adequately equipped, and nicely appointed.  Room rate of $130 per night was competitive.  Front office staff was average, not overly friendly but not rude.  Breakfast was above average, with eggs, ham/sausage, waffles, and good coffee.  Excellent location for Irvine professional area, easy access to a number of businesses and restaurants.  Bed is not comfortable at all, with a noticeable tilt to one side.  I don't think the shampoo bottles can get any smaller, but the bath soap was quite pleasant, with a hint of lemon smell.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r126743022-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>126743022</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>My family, including our animals, had to relocate to this Inn due to a pipe busting in our home.  We stayed there for almost a week.  During the week they offered a happy hour where a simple dinner or snack was served from 5-7pm in the main hall.  Every morning they offered a great breakfast.  The people were very nice and understanding about long term guests and their issues.  The room itself was very nice.  It was a two bedroom two bath suite with a full kitchen and living room with a fireplace.  The set up was really nice..great for our teenage son to still feel like he had his own space in his own room.  It was very cozy and I was extremely happy.  The only thing is this Inn is located in an industrial area so you had to travel to get to a store or place to eat.  They did offer stuff for sale in the registration area but typical of these items they were overly expensive.  I would recommend this to anyone who needs to stay someplace over a week.  Stock on groceries and cook your meals...save money.  The housekeeping is another perk!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>My family, including our animals, had to relocate to this Inn due to a pipe busting in our home.  We stayed there for almost a week.  During the week they offered a happy hour where a simple dinner or snack was served from 5-7pm in the main hall.  Every morning they offered a great breakfast.  The people were very nice and understanding about long term guests and their issues.  The room itself was very nice.  It was a two bedroom two bath suite with a full kitchen and living room with a fireplace.  The set up was really nice..great for our teenage son to still feel like he had his own space in his own room.  It was very cozy and I was extremely happy.  The only thing is this Inn is located in an industrial area so you had to travel to get to a store or place to eat.  They did offer stuff for sale in the registration area but typical of these items they were overly expensive.  I would recommend this to anyone who needs to stay someplace over a week.  Stock on groceries and cook your meals...save money.  The housekeeping is another perk!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r126295302-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>126295302</t>
+  </si>
+  <si>
+    <t>03/18/2012</t>
+  </si>
+  <si>
+    <t>Nice RI, but smaller rooms</t>
+  </si>
+  <si>
+    <t>Spent 3 nights here in early March 2012.  Lovely grounds and nice pool.  The room was smaller and not as well configured as other RIs that we have stayed at, but the front desk staff was great. It was almost impossible for someone to sit at the desk and someone else to be at the kitchen sink. The hotel is removing tumbler-style glasses and putting in only stemmed glasses, which I don't like because stemware is less stable and I want a glass of water at my bedside overnight.  It was convenient to the people we were visiting, but not to restaurants (in commercial park), but there was delivery to the hotel from several restaurants, including California Pizza Kitchen. No broiler pan to use to heat the pizza in the oven.  The closet setup was difficult--two closets right across from each other and hard to have both doors open at the same time for unpacking/packing purposes.  This is at least the 4th different RI that we have stayed at and each has differently-configured rooms.  This was our least favorite, room-wise.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Spent 3 nights here in early March 2012.  Lovely grounds and nice pool.  The room was smaller and not as well configured as other RIs that we have stayed at, but the front desk staff was great. It was almost impossible for someone to sit at the desk and someone else to be at the kitchen sink. The hotel is removing tumbler-style glasses and putting in only stemmed glasses, which I don't like because stemware is less stable and I want a glass of water at my bedside overnight.  It was convenient to the people we were visiting, but not to restaurants (in commercial park), but there was delivery to the hotel from several restaurants, including California Pizza Kitchen. No broiler pan to use to heat the pizza in the oven.  The closet setup was difficult--two closets right across from each other and hard to have both doors open at the same time for unpacking/packing purposes.  This is at least the 4th different RI that we have stayed at and each has differently-configured rooms.  This was our least favorite, room-wise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r123943941-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>123943941</t>
+  </si>
+  <si>
+    <t>01/31/2012</t>
+  </si>
+  <si>
+    <t>Strange desk set up for business traveler; hard to get online</t>
+  </si>
+  <si>
+    <t>The way the desk was set up was different than I've ever experienced at a Residence Inn, or any hotel, for that matter.  The desk doubled as the dining room table.  The chair was placed in the kitchen.  When I rolled my chair back so I could stand up, I rolled into the kitchen sink/cabinets.  To pull up to the table/desk, I had to lift the chair up to get it over the metal strip that separated the tile and carpet.  If the chair was changed to the other side of the table, then the walkway from the entry door and the rest of the living space would be blocked.  It was very hard to get online.  I stay in 150 hotel rooms a night; I can't remember the last time I experienced this much trouble.  I finally closed the computer and opened the wine.Avoid the rooms on the outer edges by the parking lot.  The sliding glass door couldn't be opened because it opened 5 feet from the sidewalk that was used by many others to get to their rooms.The check in staff was excellent.  I was very surprised, though, when my bill wasn't delivered to my room (like Marriott usually does).  So that meant I had to stop by the lobby on the way out and spend extra time.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>The way the desk was set up was different than I've ever experienced at a Residence Inn, or any hotel, for that matter.  The desk doubled as the dining room table.  The chair was placed in the kitchen.  When I rolled my chair back so I could stand up, I rolled into the kitchen sink/cabinets.  To pull up to the table/desk, I had to lift the chair up to get it over the metal strip that separated the tile and carpet.  If the chair was changed to the other side of the table, then the walkway from the entry door and the rest of the living space would be blocked.  It was very hard to get online.  I stay in 150 hotel rooms a night; I can't remember the last time I experienced this much trouble.  I finally closed the computer and opened the wine.Avoid the rooms on the outer edges by the parking lot.  The sliding glass door couldn't be opened because it opened 5 feet from the sidewalk that was used by many others to get to their rooms.The check in staff was excellent.  I was very surprised, though, when my bill wasn't delivered to my room (like Marriott usually does).  So that meant I had to stop by the lobby on the way out and spend extra time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r121264606-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>121264606</t>
+  </si>
+  <si>
+    <t>11/30/2011</t>
+  </si>
+  <si>
+    <t>Uncomfortable bed</t>
+  </si>
+  <si>
+    <t>This is a standard Residence Inn, nicely situated in a quiet area not too far from the freeway. Check-in was very efficient and friendly. The rooms seem to have been renovated fairly recently. The layout with an adjacent kitchen is good looking and practical. The problem came when we went to bed. Most Marriott Courtyard and Residence Inn hotels did not change their mattresses for years. They are saggy and too thin in the first place. No comparison to Westin, Holiday Inn or Four Points (to compare in the same price category). Therefore we began avoiding Courtyards and Residence Inns and regretted badly that we made an exception in this case. What good does it do when you have a nice looking, attractive room but cannot sleep!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>This is a standard Residence Inn, nicely situated in a quiet area not too far from the freeway. Check-in was very efficient and friendly. The rooms seem to have been renovated fairly recently. The layout with an adjacent kitchen is good looking and practical. The problem came when we went to bed. Most Marriott Courtyard and Residence Inn hotels did not change their mattresses for years. They are saggy and too thin in the first place. No comparison to Westin, Holiday Inn or Four Points (to compare in the same price category). Therefore we began avoiding Courtyards and Residence Inns and regretted badly that we made an exception in this case. What good does it do when you have a nice looking, attractive room but cannot sleep!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r117561468-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>117561468</t>
+  </si>
+  <si>
+    <t>09/01/2011</t>
+  </si>
+  <si>
+    <t>Perfect For A Soccer Tournament Weekend</t>
+  </si>
+  <si>
+    <t>My son had a soccer tournament in Irvine so we thought it would be nice if the team stayed together in a hotel near the Irvine Spectrum. The hotel is not walking distance to the Spectrum...you still have to drive a little bit to get there. The hotel check in process was easy and the room was super spacious with a king bed, pullout sofa (not so comfortable), plasma TV, full bathroom, vanity area, a kitchen &amp; a desk. Our room was located right next to the Sport Court, Pool, Laundry Room and Lobby...perfect. The pool isn't huge, but it served it's purpose and the staff really try their best to make it nice. The laundry room was nice to have to clean my son's dirty soccer uniform &amp; reasonable prices for the washer ($1.75) and dryer ($1.25). The complimentary breakfast was good too...a little crowded when we first entered but once the crowd left, it was fine. The lobby has a little convenience store where we got some late night ice cream bars and candy. My only gripe was that I thought it'd be a little closer to the Spectrum, but overall, a great value for the price. I would stay here again if we had another tournament in Irvine.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>My son had a soccer tournament in Irvine so we thought it would be nice if the team stayed together in a hotel near the Irvine Spectrum. The hotel is not walking distance to the Spectrum...you still have to drive a little bit to get there. The hotel check in process was easy and the room was super spacious with a king bed, pullout sofa (not so comfortable), plasma TV, full bathroom, vanity area, a kitchen &amp; a desk. Our room was located right next to the Sport Court, Pool, Laundry Room and Lobby...perfect. The pool isn't huge, but it served it's purpose and the staff really try their best to make it nice. The laundry room was nice to have to clean my son's dirty soccer uniform &amp; reasonable prices for the washer ($1.75) and dryer ($1.25). The complimentary breakfast was good too...a little crowded when we first entered but once the crowd left, it was fine. The lobby has a little convenience store where we got some late night ice cream bars and candy. My only gripe was that I thought it'd be a little closer to the Spectrum, but overall, a great value for the price. I would stay here again if we had another tournament in Irvine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r117533528-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>117533528</t>
+  </si>
+  <si>
+    <t>Just the right place for family</t>
+  </si>
+  <si>
+    <t>Hotel was located in a quiet area that was easily accessible to sights.  The staff, especially Amber, were fantastic and helped in every way possible.  Great breakfast and plenty of planned activities for guests.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r92800368-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>92800368</t>
+  </si>
+  <si>
+    <t>01/13/2011</t>
+  </si>
+  <si>
+    <t>Dated, Tired, Cheap, and not representative of other Res Inns</t>
+  </si>
+  <si>
+    <t>The staff seem nice.The cleaning lady has not replaced any soaps, shampoos in my room even though I have tipped her.  The second day I took a shower my soap was covered with hair that was not mine.... how did that happen??Overall the room seemed clean but hasn't been updated in ages.The morning breakfast room is overcrowded and much toom small for this size property.  The food is mediocre and styrofoam plates and plasticware make the food seem even worse than it probably is.  So much for being environmentally conscious.  The food is not replaced fast enough so people are standing around waiting.</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r46555759-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>46555759</t>
+  </si>
+  <si>
+    <t>10/11/2009</t>
+  </si>
+  <si>
+    <t>pleasant stay</t>
+  </si>
+  <si>
+    <t>This inn has a great location.  Close to Disneyland and downtown Disney...20 minutes away. Good location close to shopping. Room is very spacious. Included nice hot buffet breakfast.Great 37 inch plasma tv screen.  Convenient kitchen, refrigerator, dishwasher, oven and stove. Staff pleasant. I will definitely return.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r45826476-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>45826476</t>
+  </si>
+  <si>
+    <t>10/04/2009</t>
+  </si>
+  <si>
+    <t>Very Nice Stay</t>
+  </si>
+  <si>
+    <t>The suite had a very nice kitchen to cater to most cooking needs.  Room was clean and very pleasant.  Decor a little old-fashioned but in good taste.  Evening social-hour food was good (the regular area was under renovation during my visit so the alternate area was not the greatest).  Breakfast buffet was good.  Perfect place for extended stay.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r14716974-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>14716974</t>
+  </si>
+  <si>
+    <t>04/01/2008</t>
+  </si>
+  <si>
+    <t>Staff Stole my Ipod</t>
+  </si>
+  <si>
+    <t>After a three-day stay at this hotel, we discovered that someone from the hotel staff had stolen an iPod from our gym bag in one of their suites. Although we tried to work with Marriott to resolve this issue, they steadfastly refused to take any responsibility, and hinted that I was lying, despite conclusive evidence that the iPod was taken while in the hotel's possession. I will never again stay at any Marriott-owned property, and urge anyone who values their possessions to do likewise. This hotel in particular cannot be trusted, and the corporate management refuses to accept responsibility. Here's what happened.
+We checked out from the hotel on a Monday morning and discovered that evening that we had left a gym bag behind. We immediately notified the hotel. The next day, we were informed that our room had not been re-occupied and that the staff had recovered the bag. The management agreed to hold the bag at the front desk for us to pick up. This was great news, or so we thought. Two days later, our daughter retrieved the bag, and while our smelly gym clothes remained, the iPod was missing.
+We immediately notified the hotel manager, who sounded willing to help. By Marriott's own admission, the gym bag never left the hotel premises and hotel staffers were the only ones with access to it over the entire three days. No one else had access to it. But...After a three-day stay at this hotel, we discovered that someone from the hotel staff had stolen an iPod from our gym bag in one of their suites. Although we tried to work with Marriott to resolve this issue, they steadfastly refused to take any responsibility, and hinted that I was lying, despite conclusive evidence that the iPod was taken while in the hotel's possession. I will never again stay at any Marriott-owned property, and urge anyone who values their possessions to do likewise. This hotel in particular cannot be trusted, and the corporate management refuses to accept responsibility. Here's what happened.We checked out from the hotel on a Monday morning and discovered that evening that we had left a gym bag behind. We immediately notified the hotel. The next day, we were informed that our room had not been re-occupied and that the staff had recovered the bag. The management agreed to hold the bag at the front desk for us to pick up. This was great news, or so we thought. Two days later, our daughter retrieved the bag, and while our smelly gym clothes remained, the iPod was missing.We immediately notified the hotel manager, who sounded willing to help. By Marriott's own admission, the gym bag never left the hotel premises and hotel staffers were the only ones with access to it over the entire three days. No one else had access to it. But in the long run, all we got was a litany of excuses.The manager said he checked with the staff and, surprise!, no one fessed up to taking the iPod. He offered to file a claim on our behalf with the corporate offices. In the meantime, I filed a theft report with the Irvine police.Four days later, I received a call from the corporate offices. What started out as a polite conversation quickly degenerated when the staffer said they couldn't verify that the bag contained an iPod. "So you're telling me you don't believe me," I said. "No. We just don't know that there's an iPod," was the lame reply. I informed Marriott that I'd filed a theft report with the local police, and that filing a false report would make me a criminal. She didn't care.Because we had accidentally left a bag behind in a locked hotel room, all bets for safe return of its contents were off. Apparently, the official policy is something like: Finders Keepers.Finally, the representative offered me a $100 gift certificate, good for my next stay at a Marriott. (Does anyone know a Marriott where $100 covers even one night??) I asked why I would want to return to a hotel where the staff had stolen my property and the management refused to take responsibility. The irony was apparently lost on them. "That's the best we can do," they said.No, that's not the best you can do. You can take responsibility for the theft of my property from your hotel. You can replace my iPod, and not tell me that it's two years old and that a $100 gift certificate, which costs you nothing, is a fair settlement. You can stop questioning the honesty of a long-time customer. And finally, you can cancel my family's membership in Marriott Rewards. We won't be back. Ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>After a three-day stay at this hotel, we discovered that someone from the hotel staff had stolen an iPod from our gym bag in one of their suites. Although we tried to work with Marriott to resolve this issue, they steadfastly refused to take any responsibility, and hinted that I was lying, despite conclusive evidence that the iPod was taken while in the hotel's possession. I will never again stay at any Marriott-owned property, and urge anyone who values their possessions to do likewise. This hotel in particular cannot be trusted, and the corporate management refuses to accept responsibility. Here's what happened.
+We checked out from the hotel on a Monday morning and discovered that evening that we had left a gym bag behind. We immediately notified the hotel. The next day, we were informed that our room had not been re-occupied and that the staff had recovered the bag. The management agreed to hold the bag at the front desk for us to pick up. This was great news, or so we thought. Two days later, our daughter retrieved the bag, and while our smelly gym clothes remained, the iPod was missing.
+We immediately notified the hotel manager, who sounded willing to help. By Marriott's own admission, the gym bag never left the hotel premises and hotel staffers were the only ones with access to it over the entire three days. No one else had access to it. But...After a three-day stay at this hotel, we discovered that someone from the hotel staff had stolen an iPod from our gym bag in one of their suites. Although we tried to work with Marriott to resolve this issue, they steadfastly refused to take any responsibility, and hinted that I was lying, despite conclusive evidence that the iPod was taken while in the hotel's possession. I will never again stay at any Marriott-owned property, and urge anyone who values their possessions to do likewise. This hotel in particular cannot be trusted, and the corporate management refuses to accept responsibility. Here's what happened.We checked out from the hotel on a Monday morning and discovered that evening that we had left a gym bag behind. We immediately notified the hotel. The next day, we were informed that our room had not been re-occupied and that the staff had recovered the bag. The management agreed to hold the bag at the front desk for us to pick up. This was great news, or so we thought. Two days later, our daughter retrieved the bag, and while our smelly gym clothes remained, the iPod was missing.We immediately notified the hotel manager, who sounded willing to help. By Marriott's own admission, the gym bag never left the hotel premises and hotel staffers were the only ones with access to it over the entire three days. No one else had access to it. But in the long run, all we got was a litany of excuses.The manager said he checked with the staff and, surprise!, no one fessed up to taking the iPod. He offered to file a claim on our behalf with the corporate offices. In the meantime, I filed a theft report with the Irvine police.Four days later, I received a call from the corporate offices. What started out as a polite conversation quickly degenerated when the staffer said they couldn't verify that the bag contained an iPod. "So you're telling me you don't believe me," I said. "No. We just don't know that there's an iPod," was the lame reply. I informed Marriott that I'd filed a theft report with the local police, and that filing a false report would make me a criminal. She didn't care.Because we had accidentally left a bag behind in a locked hotel room, all bets for safe return of its contents were off. Apparently, the official policy is something like: Finders Keepers.Finally, the representative offered me a $100 gift certificate, good for my next stay at a Marriott. (Does anyone know a Marriott where $100 covers even one night??) I asked why I would want to return to a hotel where the staff had stolen my property and the management refused to take responsibility. The irony was apparently lost on them. "That's the best we can do," they said.No, that's not the best you can do. You can take responsibility for the theft of my property from your hotel. You can replace my iPod, and not tell me that it's two years old and that a $100 gift certificate, which costs you nothing, is a fair settlement. You can stop questioning the honesty of a long-time customer. And finally, you can cancel my family's membership in Marriott Rewards. We won't be back. Ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r11275359-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>11275359</t>
+  </si>
+  <si>
+    <t>12/05/2007</t>
+  </si>
+  <si>
+    <t>Perfect for our family needs...</t>
+  </si>
+  <si>
+    <t>I needed a hotel to accommodate our soccer team during Thanksgiving weekend.  The staff here was extremely accommodating.  Given the need for families to avoid eating out over a four day weekend, the kitchens suited our needs perfectly.  The facilities were meticulously maintained and clean.  While the location is in a well maintained industrial park, the Irvine Spectrum mall is very close and two supermarkets are a 5 minute drive away.   The breakfast buffet was another big plus for our thrifty soccer moms and dads.  The kids loved the pool, and ball court area.  We brought our small dog with us, and the dog walk area was equipped with disposal bag  dispensers on posts.  They really have thought about everything.  The hotel was very quiet and the room extremely clean.  I highly recommend this Residence Inn for any family oriented traveler who needs to stay in the South Irvine area. As a member of Marriott's frequent stay program, I felt that this property was even better managed than most other Residence Inns.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>I needed a hotel to accommodate our soccer team during Thanksgiving weekend.  The staff here was extremely accommodating.  Given the need for families to avoid eating out over a four day weekend, the kitchens suited our needs perfectly.  The facilities were meticulously maintained and clean.  While the location is in a well maintained industrial park, the Irvine Spectrum mall is very close and two supermarkets are a 5 minute drive away.   The breakfast buffet was another big plus for our thrifty soccer moms and dads.  The kids loved the pool, and ball court area.  We brought our small dog with us, and the dog walk area was equipped with disposal bag  dispensers on posts.  They really have thought about everything.  The hotel was very quiet and the room extremely clean.  I highly recommend this Residence Inn for any family oriented traveler who needs to stay in the South Irvine area. As a member of Marriott's frequent stay program, I felt that this property was even better managed than most other Residence Inns.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r4229782-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>4229782</t>
+  </si>
+  <si>
+    <t>12/09/2005</t>
+  </si>
+  <si>
+    <t>Very average</t>
+  </si>
+  <si>
+    <t>The hotel is located in the middle of business parks, so nothing of interest is within walking distance.  Room was decent and clean but worn and dated. Staff was friendly &amp; eager.  Free breakfast was just OK.</t>
+  </si>
+  <si>
+    <t>October 2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r1564310-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>1564310</t>
+  </si>
+  <si>
+    <t>01/22/2004</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>The room was nice, fully equipped with everything you would need for a few days' stay. The service was excellent and the staff helpful. They even offer to do the grocery shopping for free if they are provided a list. I would give this Residence Inn a thumbs up.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2159,3985 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>127</v>
+      </c>
+      <c r="X10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>137</v>
+      </c>
+      <c r="X11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>146</v>
+      </c>
+      <c r="X12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>154</v>
+      </c>
+      <c r="X13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>162</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>163</v>
+      </c>
+      <c r="X14" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>136</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>195</v>
+      </c>
+      <c r="X18" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>199</v>
+      </c>
+      <c r="J19" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>203</v>
+      </c>
+      <c r="X19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>211</v>
+      </c>
+      <c r="X20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" t="s">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s">
+        <v>218</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>219</v>
+      </c>
+      <c r="O21" t="s">
+        <v>220</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>221</v>
+      </c>
+      <c r="X21" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>225</v>
+      </c>
+      <c r="J22" t="s">
+        <v>226</v>
+      </c>
+      <c r="K22" t="s">
+        <v>227</v>
+      </c>
+      <c r="L22" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>229</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>230</v>
+      </c>
+      <c r="X22" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" t="s">
+        <v>236</v>
+      </c>
+      <c r="L23" t="s">
+        <v>237</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>238</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>239</v>
+      </c>
+      <c r="X23" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" t="s">
+        <v>246</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>238</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>247</v>
+      </c>
+      <c r="X24" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>250</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>251</v>
+      </c>
+      <c r="J25" t="s">
+        <v>252</v>
+      </c>
+      <c r="K25" t="s">
+        <v>253</v>
+      </c>
+      <c r="L25" t="s">
+        <v>254</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>238</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>255</v>
+      </c>
+      <c r="X25" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>259</v>
+      </c>
+      <c r="J26" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" t="s">
+        <v>262</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>263</v>
+      </c>
+      <c r="O26" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>264</v>
+      </c>
+      <c r="X26" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>267</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>268</v>
+      </c>
+      <c r="J27" t="s">
+        <v>269</v>
+      </c>
+      <c r="K27" t="s">
+        <v>270</v>
+      </c>
+      <c r="L27" t="s">
+        <v>271</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>272</v>
+      </c>
+      <c r="O27" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>273</v>
+      </c>
+      <c r="X27" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>277</v>
+      </c>
+      <c r="J28" t="s">
+        <v>278</v>
+      </c>
+      <c r="K28" t="s">
+        <v>279</v>
+      </c>
+      <c r="L28" t="s">
+        <v>280</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>281</v>
+      </c>
+      <c r="O28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>273</v>
+      </c>
+      <c r="X28" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>284</v>
+      </c>
+      <c r="J29" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>286</v>
+      </c>
+      <c r="L29" t="s">
+        <v>287</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>288</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>289</v>
+      </c>
+      <c r="X29" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>293</v>
+      </c>
+      <c r="J30" t="s">
+        <v>294</v>
+      </c>
+      <c r="K30" t="s">
+        <v>295</v>
+      </c>
+      <c r="L30" t="s">
+        <v>296</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>297</v>
+      </c>
+      <c r="O30" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>298</v>
+      </c>
+      <c r="X30" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>301</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>302</v>
+      </c>
+      <c r="J31" t="s">
+        <v>303</v>
+      </c>
+      <c r="K31" t="s">
+        <v>304</v>
+      </c>
+      <c r="L31" t="s">
+        <v>305</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>306</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>307</v>
+      </c>
+      <c r="X31" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>310</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>311</v>
+      </c>
+      <c r="J32" t="s">
+        <v>312</v>
+      </c>
+      <c r="K32" t="s">
+        <v>313</v>
+      </c>
+      <c r="L32" t="s">
+        <v>314</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>315</v>
+      </c>
+      <c r="O32" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>316</v>
+      </c>
+      <c r="X32" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>319</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>320</v>
+      </c>
+      <c r="J33" t="s">
+        <v>321</v>
+      </c>
+      <c r="K33" t="s">
+        <v>322</v>
+      </c>
+      <c r="L33" t="s">
+        <v>323</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>315</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>324</v>
+      </c>
+      <c r="X33" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>327</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>328</v>
+      </c>
+      <c r="J34" t="s">
+        <v>329</v>
+      </c>
+      <c r="K34" t="s">
+        <v>330</v>
+      </c>
+      <c r="L34" t="s">
+        <v>331</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>332</v>
+      </c>
+      <c r="O34" t="s">
+        <v>82</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>333</v>
+      </c>
+      <c r="X34" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>336</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>337</v>
+      </c>
+      <c r="J35" t="s">
+        <v>338</v>
+      </c>
+      <c r="K35" t="s">
+        <v>339</v>
+      </c>
+      <c r="L35" t="s">
+        <v>340</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>341</v>
+      </c>
+      <c r="O35" t="s">
+        <v>82</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>342</v>
+      </c>
+      <c r="X35" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>345</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>346</v>
+      </c>
+      <c r="J36" t="s">
+        <v>347</v>
+      </c>
+      <c r="K36" t="s">
+        <v>348</v>
+      </c>
+      <c r="L36" t="s">
+        <v>349</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>350</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>351</v>
+      </c>
+      <c r="X36" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>354</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>355</v>
+      </c>
+      <c r="J37" t="s">
+        <v>356</v>
+      </c>
+      <c r="K37" t="s">
+        <v>357</v>
+      </c>
+      <c r="L37" t="s">
+        <v>358</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>359</v>
+      </c>
+      <c r="X37" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>362</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>363</v>
+      </c>
+      <c r="J38" t="s">
+        <v>364</v>
+      </c>
+      <c r="K38" t="s">
+        <v>365</v>
+      </c>
+      <c r="L38" t="s">
+        <v>366</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>367</v>
+      </c>
+      <c r="O38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>368</v>
+      </c>
+      <c r="X38" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>371</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>372</v>
+      </c>
+      <c r="J39" t="s">
+        <v>373</v>
+      </c>
+      <c r="K39" t="s">
+        <v>374</v>
+      </c>
+      <c r="L39" t="s">
+        <v>375</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>376</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>377</v>
+      </c>
+      <c r="J40" t="s">
+        <v>378</v>
+      </c>
+      <c r="K40" t="s">
+        <v>379</v>
+      </c>
+      <c r="L40" t="s">
+        <v>380</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>341</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>381</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>382</v>
+      </c>
+      <c r="J41" t="s">
+        <v>383</v>
+      </c>
+      <c r="K41" t="s">
+        <v>384</v>
+      </c>
+      <c r="L41" t="s">
+        <v>385</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>386</v>
+      </c>
+      <c r="O41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>387</v>
+      </c>
+      <c r="X41" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>390</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>391</v>
+      </c>
+      <c r="J42" t="s">
+        <v>392</v>
+      </c>
+      <c r="K42" t="s">
+        <v>393</v>
+      </c>
+      <c r="L42" t="s">
+        <v>394</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>395</v>
+      </c>
+      <c r="O42" t="s">
+        <v>136</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>396</v>
+      </c>
+      <c r="X42" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>398</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>399</v>
+      </c>
+      <c r="J43" t="s">
+        <v>400</v>
+      </c>
+      <c r="K43" t="s">
+        <v>401</v>
+      </c>
+      <c r="L43" t="s">
+        <v>402</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>403</v>
+      </c>
+      <c r="O43" t="s">
+        <v>82</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>396</v>
+      </c>
+      <c r="X43" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>405</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J44" t="s">
+        <v>407</v>
+      </c>
+      <c r="K44" t="s">
+        <v>408</v>
+      </c>
+      <c r="L44" t="s">
+        <v>409</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>410</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>411</v>
+      </c>
+      <c r="X44" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>414</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>415</v>
+      </c>
+      <c r="J45" t="s">
+        <v>416</v>
+      </c>
+      <c r="K45" t="s">
+        <v>417</v>
+      </c>
+      <c r="L45" t="s">
+        <v>418</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>419</v>
+      </c>
+      <c r="O45" t="s">
+        <v>82</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>420</v>
+      </c>
+      <c r="X45" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>422</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>423</v>
+      </c>
+      <c r="J46" t="s">
+        <v>424</v>
+      </c>
+      <c r="K46" t="s">
+        <v>425</v>
+      </c>
+      <c r="L46" t="s">
+        <v>426</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>419</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>428</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>429</v>
+      </c>
+      <c r="J47" t="s">
+        <v>430</v>
+      </c>
+      <c r="K47" t="s">
+        <v>431</v>
+      </c>
+      <c r="L47" t="s">
+        <v>432</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>433</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>434</v>
+      </c>
+      <c r="X47" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>437</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>438</v>
+      </c>
+      <c r="J48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K48" t="s">
+        <v>440</v>
+      </c>
+      <c r="L48" t="s">
+        <v>441</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>442</v>
+      </c>
+      <c r="O48" t="s">
+        <v>82</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>443</v>
+      </c>
+      <c r="X48" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>446</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>447</v>
+      </c>
+      <c r="J49" t="s">
+        <v>448</v>
+      </c>
+      <c r="K49" t="s">
+        <v>449</v>
+      </c>
+      <c r="L49" t="s">
+        <v>450</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>442</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>451</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>452</v>
+      </c>
+      <c r="J50" t="s">
+        <v>453</v>
+      </c>
+      <c r="K50" t="s">
+        <v>454</v>
+      </c>
+      <c r="L50" t="s">
+        <v>455</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>456</v>
+      </c>
+      <c r="O50" t="s">
+        <v>82</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>458</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>459</v>
+      </c>
+      <c r="J51" t="s">
+        <v>460</v>
+      </c>
+      <c r="K51" t="s">
+        <v>461</v>
+      </c>
+      <c r="L51" t="s">
+        <v>462</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>463</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>465</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>466</v>
+      </c>
+      <c r="J52" t="s">
+        <v>467</v>
+      </c>
+      <c r="K52" t="s">
+        <v>468</v>
+      </c>
+      <c r="L52" t="s">
+        <v>469</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>470</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>472</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>473</v>
+      </c>
+      <c r="J53" t="s">
+        <v>474</v>
+      </c>
+      <c r="K53" t="s">
+        <v>475</v>
+      </c>
+      <c r="L53" t="s">
+        <v>476</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>477</v>
+      </c>
+      <c r="O53" t="s">
+        <v>82</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>479</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>480</v>
+      </c>
+      <c r="J54" t="s">
+        <v>481</v>
+      </c>
+      <c r="K54" t="s">
+        <v>482</v>
+      </c>
+      <c r="L54" t="s">
+        <v>483</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>484</v>
+      </c>
+      <c r="O54" t="s">
+        <v>82</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>486</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>487</v>
+      </c>
+      <c r="J55" t="s">
+        <v>481</v>
+      </c>
+      <c r="K55" t="s">
+        <v>488</v>
+      </c>
+      <c r="L55" t="s">
+        <v>489</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>484</v>
+      </c>
+      <c r="O55" t="s">
+        <v>82</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>490</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>491</v>
+      </c>
+      <c r="J56" t="s">
+        <v>492</v>
+      </c>
+      <c r="K56" t="s">
+        <v>493</v>
+      </c>
+      <c r="L56" t="s">
+        <v>494</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>495</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>496</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>497</v>
+      </c>
+      <c r="J57" t="s">
+        <v>498</v>
+      </c>
+      <c r="K57" t="s">
+        <v>499</v>
+      </c>
+      <c r="L57" t="s">
+        <v>500</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>501</v>
+      </c>
+      <c r="O57" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>502</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>503</v>
+      </c>
+      <c r="J58" t="s">
+        <v>504</v>
+      </c>
+      <c r="K58" t="s">
+        <v>505</v>
+      </c>
+      <c r="L58" t="s">
+        <v>506</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>507</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>508</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>509</v>
+      </c>
+      <c r="J59" t="s">
+        <v>510</v>
+      </c>
+      <c r="K59" t="s">
+        <v>511</v>
+      </c>
+      <c r="L59" t="s">
+        <v>512</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>513</v>
+      </c>
+      <c r="O59" t="s">
+        <v>82</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>515</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>516</v>
+      </c>
+      <c r="J60" t="s">
+        <v>517</v>
+      </c>
+      <c r="K60" t="s">
+        <v>518</v>
+      </c>
+      <c r="L60" t="s">
+        <v>519</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>520</v>
+      </c>
+      <c r="O60" t="s">
+        <v>82</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>522</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>523</v>
+      </c>
+      <c r="J61" t="s">
+        <v>524</v>
+      </c>
+      <c r="K61" t="s">
+        <v>525</v>
+      </c>
+      <c r="L61" t="s">
+        <v>526</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>527</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>27409</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>528</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>529</v>
+      </c>
+      <c r="J62" t="s">
+        <v>530</v>
+      </c>
+      <c r="K62" t="s">
+        <v>531</v>
+      </c>
+      <c r="L62" t="s">
+        <v>532</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>532</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_645.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_645.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="594">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Serial_Journey</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t>The location is good.If you stay here you will need a car, cause the don't have Shuttle service (Pick-up and Drop -off) to near places.I stayed many times for work while traveling with my wife and Kids.The Apartments are really comfortable.Definitely a good option.More</t>
+  </si>
+  <si>
+    <t>Beth W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r565176836-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
@@ -228,6 +234,9 @@
 I believe where Marriott failed is the renovation design.  How they were sold on the hard as rock sofa, the placement of the furniture,and wall TVs not centered makes me wonder what interior design firm designed this space and...This is my 3rd visit to this hotel for local business.  On this visit I was given a newly renovated room.  The first challenge was wall light switches that didn’t operate a light.  The new lamps are not intuitive to find the “on” switch so I entered a dark room and couldn’t get lights on.   There is an ceiling fan with lights that when you find the switch it is like flood lights- so bright I turned them off.   The ceiling fan does not work regardless of what button you push.The sofa is new but hard as a rock.  So difficult to get comfortable.   The sofa is perpendicular to the wall the tv is on so the placement is not right whatsoever. The wall TV in the master bedroom is not centered with the king bed.  It is off to the side and is not adjustable to move.The bathroom door doesn’t stay completely open.  I had to put towels on floor to keep it open.  The hotel is clean.  The furnishings are new.  The kitchen area is very good.  There is ample space in the unit.  There is a heated pool.  The breakfast is good and brings good value.   I believe where Marriott failed is the renovation design.  How they were sold on the hard as rock sofa, the placement of the furniture,and wall TVs not centered makes me wonder what interior design firm designed this space and selected the furnishings and lighting.   The rooms are spacious and there was so much opportunity to design the space so much better. Did the design firm think of the customer, from the time they walk in the door to turn on a light to sitting on the bed or sofa?These comments are not something a general manager can change- with more rooms being renovated and the pallets of furnishings in the parking lot- everything has already been ordered.This hotel is perfect for a family looking for value - but for me- I will look elsewhere on my next trip to Irvine.    I am looking for a functional, comfortable room- that’s it.  Sorry Marriott- you missed the mark in your renovation.More</t>
   </si>
   <si>
+    <t>vizmerch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r560289544-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -258,6 +267,9 @@
     <t>This room was used to stay close to friends in the area. It was clean and had a fun layout. It was very dated, but the property is in the middle of a renovation. The pics of how it will look when complete look great in the lobby.The staff was very cordial and even swung by and gave us fruit for the morning with a nice card. This property is in the middle of a business park and a ways from the Irvine Spectrum.  You have to drive or Lyft if going make a visit.More</t>
   </si>
   <si>
+    <t>Ketan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r488215003-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -288,6 +300,9 @@
     <t>Breakfast staff go out ot their way to help people and privide services with smile.  Front desk staff is also go out of their way to help with smile.  It's family friendly place for any family.  This was my second visit at this hotel and both time services with smile.More</t>
   </si>
   <si>
+    <t>Kimmie1215</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r480565520-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -315,6 +330,9 @@
     <t>We had a very nice suite with a kitchen &amp; living area and 2 bedrooms. The staff were all so friendly! Everyone went out of their way to accommodate us. Summer, the front desk person was very friendly and even brought us breakfast because we missed the morning breakfast due to over sleeping. Seth went above and beyond when we were leaving. He was cleaning rooms and stopped what he was doing and with a smile helped us bring our luggage to the car. The free breakfast in the morning was delicious, not just breads and coffee but eggs and sausage and fresh fruit, juice, waffles and more! Service was exceptional and the hotel was very clean and comfortable. It's well worth the money spent to stay here.More</t>
   </si>
   <si>
+    <t>uscrich</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r474284258-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -339,6 +357,9 @@
     <t>The AGM (LeAnn) and Tara were amazing. A previous reservation at different hotel was not honored and these ladies made a terrible start to a trip, wonderful. They were able to get me the room I needed, completely supportive and ensured my stay was comfortable. The room itself was comfortable, noise level was acceptable and parking was convenient. Plenty or eateries close by and access to freeways was quick.The exemplify the great customer service that I would expect from all Marriott Hotels.More</t>
   </si>
   <si>
+    <t>anonymous7550</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r462104215-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -366,6 +387,9 @@
     <t>We have stayed at a few places in this area. This was the best bang for the buck!  Free parking, breakfast included (Hot food, fresh fruit, cereal, etc), coffee machine (avail at all hours), comfortable clean rooms, and friendly staff.More</t>
   </si>
   <si>
+    <t>James A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r460541211-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -393,6 +417,9 @@
     <t>I have been staying at this hotel for quite some time and since day one, the staff at the Residence Inn have been helpful and very accommodating. If I ever have any issues, very few, they do their best to solve it immediately.More</t>
   </si>
   <si>
+    <t>jahopson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r455189107-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -420,6 +447,9 @@
     <t>Stayed 8 days in one-bedroom studio-type unit.  Place is a bit dated, as others have noted, but very adequate and clean. Asked to be moved to upstairs unit to avoid noise overhead although there are no elevators so expect to lug suitcases up two flights. I also requested a side chair as there is just one sofa, which is awkward for guests. Was quickly accommodated in both cases and they offered to transport my luggage! Breakfasts are amazing and varied!  Staff, Especially manager Elizabeth Kelleher, is very friendly and helpful. Safe area.  Easy access anywhere. Will stay here again next month when I return.More</t>
   </si>
   <si>
+    <t>Sally B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r424506343-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -450,6 +480,9 @@
     <t>We stayed here for one night to go see a concert. This hotel is conveniently located fairly close to many things to do in the Orange County area. The area itself is more located in an industrial park, but it's quiet. We were on the 2nd floor (had to go up a flight of stairs) and the suite was clean and nice. We had a kitchen area and a little living room area. Breakfast was nice. It has parking.More</t>
   </si>
   <si>
+    <t>Georgia A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r419938871-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -477,6 +510,9 @@
     <t>The staff did not know basic things like how we connect to the Internet, how the printer worked, took a lot of time to check in, only the man who served breakfast was helpful. The room was old and not well airconditioned, did have anywhere fresh air could come in only a small door, smelled of mould. It was serviced though. Hotel expensive for what it offeredMore</t>
   </si>
   <si>
+    <t>verynize</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r415469433-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -501,6 +537,9 @@
     <t>My family stayed 2 nights at this location because our house was undergoing repair.  The staff is extremely helpful and a real pleasure.  During the evenings this hotel offers a happy hour selection.  My 3 year old son and I can a little bit early before the happy hour.  With all 3 year old kids, he couldn't wait.  The front staff - Jessica, Laura, and Leann were super nice.  They provided a special snack for my kids and went out of their way to do this.During our stay we asked for extra towels and Aaron responded immediately.  Even though the property is spaced out a bit, he showed up within 5 minutes.  The service and team at this location made the experience awesome.More</t>
   </si>
   <si>
+    <t>Bill L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r386972096-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -528,6 +567,9 @@
     <t>This Inn is located in a light industrial area with many office parks nearby. The staff is polite and efficient. the breakfast is well prepared with a nice variety each day. The Mixer offers typical fare. There is no store within walking distance so plan ahead.More</t>
   </si>
   <si>
+    <t>Valerie Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r380935772-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -552,6 +594,9 @@
     <t>The Residence Inn is a extended stay style hotel, with a kitchen, full sized fridge in the room. The room we stayed in looked newly renovated with clean carpets and new furniture and was very clean. The hotel also offers free complimentary hot breakfast (not just continental breakfast). The hotel also has free parking and a small pool and gym. I recommend this place to anyone!More</t>
   </si>
   <si>
+    <t>james p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r380594709-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -570,6 +615,9 @@
     <t>Decided to head down to Irvine for a concert at Verizon amphitheater and needed a place to stay. Did a little research and chose The R.I. Spectrum only 2 miles from the venue.   We were very pleased with the decision. A smallish room with a large kitchenette and work station. a sitting area with small foldout couch , chair and working wood fireplace. A comfy bed , a dressing area with ample counter space and tub/shower enclosure with a pocket door. Clean and well kept ,everything you need for a comfortable stay.   Among the amenities are a smallish pool with handicapped lift , tables and chairs with umbrellas and a large gas grill. The grounds are well maintained and there is ample parking around the entire property. The check in offers computer access a small "market" with a limited amount of beverages including wine and incidentals.  One of the highlights of a stay here is the free breakfast. It is a full buffet self serve breakfast including eggs,sausage,potatoes ,bagels, bread , fruit juice , coffee and a self make waffle bar. Seating can be limited if it is a busy morning and there seats outside as well.  Special shout out to the exceptional staff Audri and Aaron and all others we encountered including the polite housekeepers.  All in all a great place for a overnight stay or and extended visit.More</t>
   </si>
   <si>
+    <t>Meceebee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r350700095-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -595,6 +643,9 @@
   </si>
   <si>
     <t>This is a great hotel with a great location. It is older but there are many features that make it a very good place to stay. The hotel staff was very friendly and very helpful. Handicap rooms have smaller beds than other rooms so if you don't need a handicap room you get a bigger bedMore</t>
+  </si>
+  <si>
+    <t>RaphaelCalvo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r335313251-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
@@ -638,6 +689,9 @@
 Amenities - There is a loundry area where you can put your clothes to wash and dry. Pool area (where a happy hour...I stayed in this hotel for more than 4 months due to a prolonged business trip to California. Even though my review states that I was there in January 2015 I must rectify it saying that I was there in 2012. I find very difficult that my review will be outdated.I will start saying that if you plan a short stay in Irvine and will not spend the weekend you should check the Courtyard Marriott or other hotels close to Irvine Spectrum. When I say close I mean at a walking distance. Especially if you like a good beer... You can enjoy more than 200 varieties in the Yard house Restaurant and walk back to your hotel room without a DUI. If that is not the case then I can certainly vouch for the Marriott Residence Inn.Excellent Location. (For business) - Very close to most of the big companies in the OC area. Some at a walking distance.Attractions - near Irvine Spectrum where you can find a fine selection of restaurants a good movie theater.Less than 1 hour drive to great beaches in Southern California area.Restaurant - there is no restaurant in the Hotel.Breakfast - No espressos...(this should be improved). Typical breakfast of American Hotels with waffles, yogurt, juices and stuff...Amenities - There is a loundry area where you can put your clothes to wash and dry. Pool area (where a happy hour with pizza, burgers and free beer is available everyday around 17:00). There is also a good Gym with air-conditioning.The Hotel is child-friendly so if you are concerned with noise get a room far from the pool area.The staff is very friendly.Easy to park without additional fees.There is also a very small deli at the reception.More</t>
   </si>
   <si>
+    <t>PingZinger1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r330538990-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -662,6 +716,9 @@
     <t>Stayed for 6 nights on points from our Marriot cards....Thanks Marriott!!! We found the rooms to be very comfortable with plenty of seating to watch TV and a full kitchen. We only used the fridge and coffee maker but it was nice to have. The bed was just the right firmness and we both slept really good. We were on the first floor (2 stories) and could hear a little noise from upstairs but it was not an issue. Overall we really enjoyed our stay. The staff was very friendly and when we got back late one night I asked for cookies from the social mixer earlier in the evening and was handed a couple of delicious fresh cookies. Would be great for a business traveler and worked well for us visiting our daughter who is a student at ChapmanMore</t>
   </si>
   <si>
+    <t>george m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r311311453-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -686,6 +743,9 @@
     <t>because of my job I try to stay at places that can make my stay very comfortable so this hotel is the place when you are at this area for business, and if you are hungry then , many places to choose, I like itMore</t>
   </si>
   <si>
+    <t>Vincent P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r303101788-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -716,6 +776,9 @@
     <t>Gabby and Mariah Residence Inn Marriott hostesses provide excellent ++  customer service. a word of caution for families with young children, this is a  country environment  and is thus subject to  insects entering the rooms from the shrubs and bushes surrounding the footprint of the building.    Leann Doherty, Residence Inn Marriot operations manager told me that  due to country environs the  exterior bushes and shrubs are treated by  professional exterminators on a regular basis.The rooms are spacious and the $ 177 weekend rate is hard to beat in this location.Ask Gabby and Mariah,  about all the special  locations in Lake Forest don't forget to visit the Irvine Spectrum Center , a High End Fashion Mall with a  high Ferris Wheeland many restaurants at trhe center.More</t>
   </si>
   <si>
+    <t>Steve G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r301656237-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -743,6 +806,9 @@
     <t>The room was clean and quiet. This was everything I needed for a business trip. It was easy to access, but nothing around within walking distance. There were plenty of places with sidewalks to run however.More</t>
   </si>
   <si>
+    <t>Cypressman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r282091762-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -770,6 +836,9 @@
     <t>The room was a bit below average for what I have come to expect from Marriott over the years. I was a disappointed that the sleeper sofa had popcorn on it (didn't get) looked at during cleaning. The kitchen floor was dirty and stick on tiles for the lower bathroom were coming off. The gentleman at the desk was very nice and helpful.  I can't say the same for the remaining staff except one other - most of the staff didn't smile, didn't thank me for my business and acted as if the customers were an inconvenience rather than a blessing. There was one gentleman at the breakfast who was very friendly and helpful each morning. The area was great. Close enough to everything and far away for some peace and quiteMore</t>
   </si>
   <si>
+    <t>Jonathan A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r279838308-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -794,6 +863,9 @@
     <t>First off, Stephanie took care of us over the phone beforehand and was there with my key waiting for me upon arrival. She showed us where our room was and provided excellent accommodation and services. Secondly, the room itself is far superior to any other hotels in the area. I had a room with a second story and the place could not have been cleaner and in better condition when i showed up. It is obvious the management is very concerned on keeping their guests happy, and I was certainly satisfied. I had no trouble checking in, checking out or any of the billing. I highly recommend staying here and will definitely again soon.More</t>
   </si>
   <si>
+    <t>JMinNC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r278482216-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -818,6 +890,9 @@
     <t>Located within a very quiet office park area, this hotel has comfortable rooms, a very nice and helpful staff, attractive and nicely landscaped grounds, a decent breakfast, and has evening activities for guests on some nights.  There is also a clean pool and jacuzzi, tennis courts, and a small fitness center.  The hotel is about about a 5 minute drive (or 45 minute walk) from the Irvine Spectrum Center shopping area; the closest airport is Santa Anna (a.k.a., John Wayne, Orange County, SNA), about 11 miles (15-20 minute drive).  Oh, and the nearest Starbucks is a little under a mile away (~20 minute walk).  Overall, this is a very comfortable, pleasant, and friendly place to stay -- a little off the beaten path and still very convenient to most of the Irvine area.More</t>
   </si>
   <si>
+    <t>Scott P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r269701879-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -845,6 +920,9 @@
     <t>Really cute hotel in a quiet area. Beds are super comfy and best of all... Stephanie, one of the front desk agents is AAAAAAAMAZING!!!!! She is super nice, engaging, and thoughtful. We shared a story with her about another stay, and she went the EXTRA hundred miles to make up for a bad experience that didn't involve her or her property and really made our day and our stay. Fantastic experience and what a great person to represent her property and company. Way to go!!!!THANK YOU STEPHANIE!   ;)More</t>
   </si>
   <si>
+    <t>Ram H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r264942462-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -872,6 +950,9 @@
     <t>We were here for two nights as part of group of 15 of us to attend a wedding nearby. Very nice and spacious rooms fully equipped kitchenette with dining table and sitting area with sofas which converted into beds at night. We were with our two kids who comfortable slept in the sofa cum beds and the room was spacious enough for four of us not to feel claustrophobic at all. Meal facilities were limited to the breakfast in the restaurant in the morning which came complementary. The breakfast spread was quite generous and good. The hotel had a small pool and a tennis court too. Also equipped with a self service launderette. Being located in a industrial area not much to do nearby.More</t>
   </si>
   <si>
+    <t>Ardent_traveler7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r264780040-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -893,6 +974,9 @@
     <t>Residence Inn was a good experience.  The rooms are spacious, ours also had a mini kitchenette.  While we didn't get to use that, it was good to have some options given this is an expensive neighborhood.  In a hotel, one looks for comfort, amenities, and cleanliness - all areas were very well thought through.  While this was not extremely luxurious, it was sufficiently well serviced to not miss anything.  The property is small, so you are not going to have many places to hang out except the lobby and the outdoor patio.  Breakfast was ok, could use more options.  And longer window, 7am - 9am is really very short a window for so many guests to be able to relax and eat without feeling too rushed.It has a swimming pool and an outdoor fireplace, very cool!We will definitely go back should our travels take us there, and highly recommend it as well.More</t>
   </si>
   <si>
+    <t>NHDad86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r244798736-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -920,6 +1004,9 @@
     <t>The hotel is very clean and the staff is extremely friendly.  It is conveniently located, but pretty quiet.  They have an upgraded coffee maker - Douwe Egbert - GREAT coffee.  Definitely stay here if you have business in Irvine.More</t>
   </si>
   <si>
+    <t>TravelingRedPanda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r242195726-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -947,6 +1034,9 @@
     <t>I want to give this place a 3.5 star rating. Stuffs were extremely friendly and helpful.  Food was also reasonable and room was spacious and well-maintained. Leana worth special mentioning.  She was a awesome manager who took good care of me at my visit. So why the 3.5?  The problem is with the bugs!  My family got numerous bug bites on the facility.  Not sure if I got bitten in the courtyard or in the room.  I complained to the front desk, and she offered me itch-numbing cream (really nice of her, but I prefer no bug bites, it's not humid Florida in Summer, but a cool day in CA).      Another issue is the place is not in a walk-able distance to Irvine Spectrum (2.5 miles is not walk-able for me).  Instead, it's located in the middle of a office park... far away from any kind of amenities.More</t>
   </si>
   <si>
+    <t>Adel A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r237210809-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -974,6 +1064,9 @@
     <t>The staff have less knowledge about tourist areas..less helpfull and need to be trained...the breakfast is very limited and in a small area..it is like appartments and stairs..non availability of elevator and you have to carry you laggage by stairs ..no shops or gas station close by.you need to have a car.More</t>
   </si>
   <si>
+    <t>KAL2008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r225306099-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1001,6 +1094,9 @@
     <t>We stayed in a penthouse suite for 25 nights from 29-July-2014 to 23-August-2014 and thoroughly enjoyed our stay. Good hotel for families with children. Location: close to Irvine spectrum Mall and WalMart (about 3 miles), close to I-5 and I-405. Facilities: free internet, free public parking, free computer with printer in the lobby area, coins laundry. Free breakfast and in Monday, Tuesday, and Wednesday there is light meal at night. Our suite is very clean. Hotel staff: are friendly and helpful. Price is high.More</t>
   </si>
   <si>
+    <t>MAUREENH47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r222030537-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1025,6 +1121,9 @@
     <t>Good shower, the bed was ok for comfort. Free breakfast and during the week light meal at night.. There is a kitchen in the rooms. There is a free computer with printer in the lobby area. There is a pool &amp; hot tub outside. There are not many ammenties in the area. John Wayne airport is about 20 minutes away. Close to Spectrum Mall 3 miles.More</t>
   </si>
   <si>
+    <t>Susan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r216922952-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1052,6 +1151,9 @@
     <t>We LOVED this Residence Inn, Irvine Spectrum.  We stayed 12-14JULY 2014 and thoroughly enjoyed our stay.  They upgraded us to a penthouse suite, and our 18 yr old son was thrilled at having a nice queen bed and bathroom, instead of a sleeper sofa!  Their front desk staff are very nice, helpful and professional.  The location is just off of I-5, in a quiet, business-type district of Irvine, not far from the Irvine Spectrum Shopping Center, which offers great restaurants and shopping.  It's close to Lake Forest and Laguna Woods. Their daily breakfast is great and they have a nice pool and amenities.More</t>
   </si>
   <si>
+    <t>paulrupesh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r206919419-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1079,6 +1181,9 @@
     <t>We stayed here for a month when we moved to Irvine. The staff were excellent always willing to help, the manager was also very nice and upgraded us to a suite which was great. location is really lake forest and not irvine, mostly industrial and empty offices around though safe.It is close to irvine spectrum. only problem with this hotel is cleanliness and they often forgot to clean up dog poop all around the hotel, this is very much unlike irvine where you will get fined for not cleaning dog waste. Will not recommended this hotel at all because of location and cleanliness.More</t>
   </si>
   <si>
+    <t>Up69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r201688562-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1106,6 +1211,9 @@
     <t>I really enjoyed my stay at this hotel. Quiet, well maintained, well landscaped property. The suites are spacious, clean, modern and great for working. I was able to work in my room with colleagues without feeling like they were in my bedroom. They even have wood burning fireplaces. I would prefer a gas switch, they sell dura flames in the lobby. The breakfast is nice. Not my thing. The happy hour wine beer was nice but the snacks were odd. Always a meat dish ugh. There are no restaurants near by so figure dinner out before settle in. The staff was very helpful!Yes I will stay here again!More</t>
   </si>
   <si>
+    <t>Ivanubeezy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r199428227-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1130,6 +1238,9 @@
     <t>Was very excited to stay here with my partner for a little get away close to home. Little did we know that upon check in the manager Leann would be so rude and have horrible communication problems! We spilt the cost and asked her to charge both cards and we would pay the total not only did she mess up but for the 3 days 2 night stay she charged me $120 and my partner $200 for our stay and as the weekend went be i checked my statement she had charged my partner the $200 and I had a charge of $120 twice ($240) then a $30 then by check out a $141.83 thats a total of $411.83 plus my partners $200 thats a total of $611.83 luckily my bank kept my funds and was only processing them or else i would of had no money and over drafted which is ridicules and to top it off as we finish checking in she tells us I see people have checked in from your area so im warning you now no parties or you will get kicked out! What are the chances of us even knowing who these people are! Were here for a getaway if i want to party i have a house for that! She said they were telling all of there guest but 3 other people checked in at the same time we did and she not...Was very excited to stay here with my partner for a little get away close to home. Little did we know that upon check in the manager Leann would be so rude and have horrible communication problems! We spilt the cost and asked her to charge both cards and we would pay the total not only did she mess up but for the 3 days 2 night stay she charged me $120 and my partner $200 for our stay and as the weekend went be i checked my statement she had charged my partner the $200 and I had a charge of $120 twice ($240) then a $30 then by check out a $141.83 thats a total of $411.83 plus my partners $200 thats a total of $611.83 luckily my bank kept my funds and was only processing them or else i would of had no money and over drafted which is ridicules and to top it off as we finish checking in she tells us I see people have checked in from your area so im warning you now no parties or you will get kicked out! What are the chances of us even knowing who these people are! Were here for a getaway if i want to party i have a house for that! She said they were telling all of there guest but 3 other people checked in at the same time we did and she not once told them anything! Besides all of that the rooms are clean and comfortable but because of the manager being rude and pointing us out for some reason I will never stay there again there job is to make you feel welcomed not to check in and ruin your stay on your first day there.More</t>
   </si>
   <si>
+    <t>Rupak K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r191001332-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1157,6 +1268,9 @@
     <t>Receptionist was on the call for more than 10-15 mins and then bothered to check in us in the evening around 8 pm.Usually the residence inns are a good place to stay with family. This one was just average for the rate paid  per night. I will stay at a different Marriott next time!More</t>
   </si>
   <si>
+    <t>Tennis1965</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r188905491-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1172,6 +1286,9 @@
     <t>We have stayed here for many years, the service is great &amp; friendly. It is located in a quiet industrial area that's close to the freeways &amp; shopping. And there are not many places that are pet friendly anymore with plenty of surrounding areas to walk your dogs. We love it!</t>
   </si>
   <si>
+    <t>20x20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r187117636-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1187,6 +1304,9 @@
     <t>Overall, this hotel was pretty good.Ideally located for technology park in Irvine, the hotel was pretty good.Check in staff were very helpful, advising me that I had the chance to make the evening buffet (as part of my room rate). Buffet was OK, but probably not going to satisfy anyone with an appetite.Suite was very good indeed - loads of room and well furnished (including a full kitchen area, and a very useful desk / work area).</t>
   </si>
   <si>
+    <t>Susan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r179289966-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1214,6 +1334,9 @@
     <t>What a pleasant surprise to find this cute little place off the main road.  Upon check in, we were greeted by a cute friendly red head... "Morgan". Very kind and accomodating.  She went out of her way to make sure we got the room we had requested.  My mom is handicap and Morgan called our room to make sure my mom got to the room with no problems.  What great service!!!!!!When we got to our room, we were so pleasantly surprised to find such a beautiful room with living room, kitchen, bedroom &amp; bathroom downstairs and a nice loft upstairs with a bed &amp; bathroom.  The beds were so comfortable as the whole room was. The breakfast area was very nice as well with lots of great choices for breakfast! Again, we were greeted by the cute red head "Morgan" and her friendly smile and her kindness!!!!! Again, she went out of her way to make sure we had everything we needed!  Being in the customer service field, this hotel is very lucky to have such a wonderful employee representing their hotel.More</t>
   </si>
   <si>
+    <t>Sofital</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r174044460-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1238,6 +1361,9 @@
     <t>The Residence Inns that we have stayed at over the years have been very consistent in their quality and service.  That is one of the main reasons that when we get a chance to stay at them, we do.  We know what we are getting.  We will continue to visit and stay with them whether it's at this particular address or their many other locations as well. Thanks for being there for us whether it be for vacation or work related!More</t>
   </si>
   <si>
+    <t>cavalierfan1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r169190424-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1259,6 +1385,9 @@
     <t>The mail area that smokers sit and where an ashtray is located is about 15 feet from the spa and pool. It really made the experience unpleasant during our stay. Otherwise the room was nice enough and the staff at the front desk were great.More</t>
   </si>
   <si>
+    <t>goldtown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r151707585-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1286,6 +1415,9 @@
     <t>Wonderful amenities in our room - all new kitchen appliances and new furniture, decor, etc.  Felt like we were the first guests to stay in this suite.  However, not much soundproofing - we heard the guests walking around on the 2nd floor which disrupted our sleep in an otherwise comfortable, quiet environment.  The breakfast is a real plus!  Customer service was average....More</t>
   </si>
   <si>
+    <t>Footfault</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r148149898-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1308,6 +1440,9 @@
   </si>
   <si>
     <t>My family booked two rooms for a few days during the Christmas season. With a couple of exceptions, the facility is excellent.  It is well located for access to nearby attractions such as the Laguna beaches and Disneyland as well as the John Wayne airport.  Rooms were well laid out - except the back to back accordian doors to two closets.We appreciated the full size fridge and dish washer.   Most all utensils one would need for such a stay were provided (plenty of wine glasses).  WiFi speed was slow but useable.We found the food good and enjoyed the evening meal. Unfortunately, on at least one breakfast, the single attendant could not keep up with everything (on another morning, a desk staff member had been assigned to assist which improved the situation).  As noted by several other reviewers the seating area for a facility this size was very much undersized.  For most of the year this is probably not a problem as outdoor seating is also available but for several cold, rainy December days, it was.Also, as noted by others, their seemed to be a lack of sound insulation between floors.  We could easily hear a creaking board from the room above.More</t>
+  </si>
+  <si>
+    <t>Allegra R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r148096865-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
@@ -1338,6 +1473,9 @@
 I'd...I was charged an unfair fee, and as a result am very unhappy with my experience here.When I made my reservation, I asked if the hotel was pet-friendly, noted that I would be bringing a pet, and asked if there was anything else I needed to know. I was told "no, that's it." There was no information about pet fees given to me on either the phone, or on the website.When I checked in on Christmas Eve, I was told that there was a $100 non-refundable pet fee. When I asked why I had not been told this BEFORE my stay, the management acknowledged that that was a mistake, but would not waive the pet fee. The management eventually haggled with me and said I could pay a $50 pet fee. They would not simply waive the fee.While this was happening, another customer came to the desk and asked what a $100 charge on her bill was. She was told it was the pet fee. She, too, told the front desk that she had no idea there was any kind of pet fee, until after it appeared on her bill. This makes it seem like the hotel does this repeatedly because it makes them more money to charge when the customer is already there in person.It's understandable to charge a pet fee, but to not tell guests about it up front is dishonest and scammy. I'd like to note that the woman who checked me in at the front desk was very kind, apologetic and helpful. I very much appreciate all her help. She did all she could to remedy a bad situation that was clearly out of her hands. Unfortunately, the management's tactics made for a terrible experience.More</t>
   </si>
   <si>
+    <t>volksaudinut</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r131621619-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1369,6 +1507,9 @@
 I had a first floor room, which is good when you have a large amount of luggage - the second floor units are only accessible via stairs. The room itself was a nice size and looked clean, but the room had definitely been smoked in and smelled very stale, even though this property is supposed to be smoke-free. I have had this issue at Residence Inn properties in the past - I think people are just very comfortable in these home-like hotels and smoke indoors as they might in their own homes? Bed was harder than what you'd find at a Courtyard Inn or a Marriott, but the bathroom and shower were nice. Plenty of outlets and lighting, room had a charming fireplace and a newly-renovated kitchen with nice countertops...If you're familiar with Residence Inn properties, you'll recognize this location as the "original" Residence Inn style, with the "house" style buildings surrounding a main "gatehouse," where the lobby, breakfast and fitness center are located.I arrived late on my first night of a two-night stay, so although the check-in experience was friendly (with a nice gift for being Marriott Platinum Elite), the parking was tough to come by and the room I received was a bit of a hike from where I had to park. I'm sure the area of town is safe, but I always feel a little leery wandering to my room late at night and outdoors.I had a first floor room, which is good when you have a large amount of luggage - the second floor units are only accessible via stairs. The room itself was a nice size and looked clean, but the room had definitely been smoked in and smelled very stale, even though this property is supposed to be smoke-free. I have had this issue at Residence Inn properties in the past - I think people are just very comfortable in these home-like hotels and smoke indoors as they might in their own homes? Bed was harder than what you'd find at a Courtyard Inn or a Marriott, but the bathroom and shower were nice. Plenty of outlets and lighting, room had a charming fireplace and a newly-renovated kitchen with nice countertops and appliances.I didn't use the fitness center or try out the free breakfast on this visit, but I found the location to be very accessible to not only the SNA airport, but also to Irvine and Lake Forest area restaurants and stores.More</t>
   </si>
   <si>
+    <t>veronicaindonesia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r130954104-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1396,6 +1537,9 @@
     <t>Nice location and convenient. The room is just the right size. There was free dinner and breakfast. Good place to stay  with kids.More</t>
   </si>
   <si>
+    <t>richarddavis2020</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r130479519-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1411,6 +1555,9 @@
     <t>1 bedroom floor unit was clean, adequately equipped, and nicely appointed.  Room rate of $130 per night was competitive.  Front office staff was average, not overly friendly but not rude.  Breakfast was above average, with eggs, ham/sausage, waffles, and good coffee.  Excellent location for Irvine professional area, easy access to a number of businesses and restaurants.  Bed is not comfortable at all, with a noticeable tilt to one side.  I don't think the shampoo bottles can get any smaller, but the bath soap was quite pleasant, with a hint of lemon smell.  I would stay here again.</t>
   </si>
   <si>
+    <t>mrsguevara</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r126743022-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1432,6 +1579,9 @@
     <t>My family, including our animals, had to relocate to this Inn due to a pipe busting in our home.  We stayed there for almost a week.  During the week they offered a happy hour where a simple dinner or snack was served from 5-7pm in the main hall.  Every morning they offered a great breakfast.  The people were very nice and understanding about long term guests and their issues.  The room itself was very nice.  It was a two bedroom two bath suite with a full kitchen and living room with a fireplace.  The set up was really nice..great for our teenage son to still feel like he had his own space in his own room.  It was very cozy and I was extremely happy.  The only thing is this Inn is located in an industrial area so you had to travel to get to a store or place to eat.  They did offer stuff for sale in the registration area but typical of these items they were overly expensive.  I would recommend this to anyone who needs to stay someplace over a week.  Stock on groceries and cook your meals...save money.  The housekeeping is another perk!More</t>
   </si>
   <si>
+    <t>RuthMc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r126295302-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1453,6 +1603,9 @@
     <t>Spent 3 nights here in early March 2012.  Lovely grounds and nice pool.  The room was smaller and not as well configured as other RIs that we have stayed at, but the front desk staff was great. It was almost impossible for someone to sit at the desk and someone else to be at the kitchen sink. The hotel is removing tumbler-style glasses and putting in only stemmed glasses, which I don't like because stemware is less stable and I want a glass of water at my bedside overnight.  It was convenient to the people we were visiting, but not to restaurants (in commercial park), but there was delivery to the hotel from several restaurants, including California Pizza Kitchen. No broiler pan to use to heat the pizza in the oven.  The closet setup was difficult--two closets right across from each other and hard to have both doors open at the same time for unpacking/packing purposes.  This is at least the 4th different RI that we have stayed at and each has differently-configured rooms.  This was our least favorite, room-wise.More</t>
   </si>
   <si>
+    <t>Lepha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r123943941-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1474,6 +1627,9 @@
     <t>The way the desk was set up was different than I've ever experienced at a Residence Inn, or any hotel, for that matter.  The desk doubled as the dining room table.  The chair was placed in the kitchen.  When I rolled my chair back so I could stand up, I rolled into the kitchen sink/cabinets.  To pull up to the table/desk, I had to lift the chair up to get it over the metal strip that separated the tile and carpet.  If the chair was changed to the other side of the table, then the walkway from the entry door and the rest of the living space would be blocked.  It was very hard to get online.  I stay in 150 hotel rooms a night; I can't remember the last time I experienced this much trouble.  I finally closed the computer and opened the wine.Avoid the rooms on the outer edges by the parking lot.  The sliding glass door couldn't be opened because it opened 5 feet from the sidewalk that was used by many others to get to their rooms.The check in staff was excellent.  I was very surprised, though, when my bill wasn't delivered to my room (like Marriott usually does).  So that meant I had to stop by the lobby on the way out and spend extra time.More</t>
   </si>
   <si>
+    <t>Buddy-Bear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r121264606-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1495,6 +1651,9 @@
     <t>This is a standard Residence Inn, nicely situated in a quiet area not too far from the freeway. Check-in was very efficient and friendly. The rooms seem to have been renovated fairly recently. The layout with an adjacent kitchen is good looking and practical. The problem came when we went to bed. Most Marriott Courtyard and Residence Inn hotels did not change their mattresses for years. They are saggy and too thin in the first place. No comparison to Westin, Holiday Inn or Four Points (to compare in the same price category). Therefore we began avoiding Courtyards and Residence Inns and regretted badly that we made an exception in this case. What good does it do when you have a nice looking, attractive room but cannot sleep!More</t>
   </si>
   <si>
+    <t>Christina C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r117561468-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1516,6 +1675,9 @@
     <t>My son had a soccer tournament in Irvine so we thought it would be nice if the team stayed together in a hotel near the Irvine Spectrum. The hotel is not walking distance to the Spectrum...you still have to drive a little bit to get there. The hotel check in process was easy and the room was super spacious with a king bed, pullout sofa (not so comfortable), plasma TV, full bathroom, vanity area, a kitchen &amp; a desk. Our room was located right next to the Sport Court, Pool, Laundry Room and Lobby...perfect. The pool isn't huge, but it served it's purpose and the staff really try their best to make it nice. The laundry room was nice to have to clean my son's dirty soccer uniform &amp; reasonable prices for the washer ($1.75) and dryer ($1.25). The complimentary breakfast was good too...a little crowded when we first entered but once the crowd left, it was fine. The lobby has a little convenience store where we got some late night ice cream bars and candy. My only gripe was that I thought it'd be a little closer to the Spectrum, but overall, a great value for the price. I would stay here again if we had another tournament in Irvine.More</t>
   </si>
   <si>
+    <t>cswift53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r117533528-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1528,6 +1690,9 @@
     <t>Hotel was located in a quiet area that was easily accessible to sights.  The staff, especially Amber, were fantastic and helped in every way possible.  Great breakfast and plenty of planned activities for guests.</t>
   </si>
   <si>
+    <t>Dansocal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r92800368-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1546,6 +1711,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>travelson03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r46555759-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1564,6 +1732,9 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>peegoo69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r45826476-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1580,6 +1751,9 @@
   </si>
   <si>
     <t>September 2009</t>
+  </si>
+  <si>
+    <t>lablover2go</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r14716974-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
@@ -1607,6 +1781,9 @@
 We immediately notified the hotel manager, who sounded willing to help. By Marriott's own admission, the gym bag never left the hotel premises and hotel staffers were the only ones with access to it over the entire three days. No one else had access to it. But...After a three-day stay at this hotel, we discovered that someone from the hotel staff had stolen an iPod from our gym bag in one of their suites. Although we tried to work with Marriott to resolve this issue, they steadfastly refused to take any responsibility, and hinted that I was lying, despite conclusive evidence that the iPod was taken while in the hotel's possession. I will never again stay at any Marriott-owned property, and urge anyone who values their possessions to do likewise. This hotel in particular cannot be trusted, and the corporate management refuses to accept responsibility. Here's what happened.We checked out from the hotel on a Monday morning and discovered that evening that we had left a gym bag behind. We immediately notified the hotel. The next day, we were informed that our room had not been re-occupied and that the staff had recovered the bag. The management agreed to hold the bag at the front desk for us to pick up. This was great news, or so we thought. Two days later, our daughter retrieved the bag, and while our smelly gym clothes remained, the iPod was missing.We immediately notified the hotel manager, who sounded willing to help. By Marriott's own admission, the gym bag never left the hotel premises and hotel staffers were the only ones with access to it over the entire three days. No one else had access to it. But in the long run, all we got was a litany of excuses.The manager said he checked with the staff and, surprise!, no one fessed up to taking the iPod. He offered to file a claim on our behalf with the corporate offices. In the meantime, I filed a theft report with the Irvine police.Four days later, I received a call from the corporate offices. What started out as a polite conversation quickly degenerated when the staffer said they couldn't verify that the bag contained an iPod. "So you're telling me you don't believe me," I said. "No. We just don't know that there's an iPod," was the lame reply. I informed Marriott that I'd filed a theft report with the local police, and that filing a false report would make me a criminal. She didn't care.Because we had accidentally left a bag behind in a locked hotel room, all bets for safe return of its contents were off. Apparently, the official policy is something like: Finders Keepers.Finally, the representative offered me a $100 gift certificate, good for my next stay at a Marriott. (Does anyone know a Marriott where $100 covers even one night??) I asked why I would want to return to a hotel where the staff had stolen my property and the management refused to take responsibility. The irony was apparently lost on them. "That's the best we can do," they said.No, that's not the best you can do. You can take responsibility for the theft of my property from your hotel. You can replace my iPod, and not tell me that it's two years old and that a $100 gift certificate, which costs you nothing, is a fair settlement. You can stop questioning the honesty of a long-time customer. And finally, you can cancel my family's membership in Marriott Rewards. We won't be back. Ever.More</t>
   </si>
   <si>
+    <t>tedlew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r11275359-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1628,6 +1805,9 @@
     <t>I needed a hotel to accommodate our soccer team during Thanksgiving weekend.  The staff here was extremely accommodating.  Given the need for families to avoid eating out over a four day weekend, the kitchens suited our needs perfectly.  The facilities were meticulously maintained and clean.  While the location is in a well maintained industrial park, the Irvine Spectrum mall is very close and two supermarkets are a 5 minute drive away.   The breakfast buffet was another big plus for our thrifty soccer moms and dads.  The kids loved the pool, and ball court area.  We brought our small dog with us, and the dog walk area was equipped with disposal bag  dispensers on posts.  They really have thought about everything.  The hotel was very quiet and the room extremely clean.  I highly recommend this Residence Inn for any family oriented traveler who needs to stay in the South Irvine area. As a member of Marriott's frequent stay program, I felt that this property was even better managed than most other Residence Inns.More</t>
   </si>
   <si>
+    <t>WashDC1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r4229782-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1644,6 +1824,9 @@
   </si>
   <si>
     <t>October 2005</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d92498-r1564310-Residence_Inn_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
@@ -2163,43 +2346,47 @@
       <c r="A2" t="n">
         <v>27409</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2215,56 +2402,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27409</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2276,56 +2467,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27409</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2337,56 +2532,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27409</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2404,56 +2603,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27409</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2469,56 +2672,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27409</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>96</v>
       </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>91</v>
-      </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2534,56 +2741,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27409</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2601,56 +2812,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27409</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2668,56 +2883,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27409</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2733,56 +2952,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="X10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Y10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27409</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2798,56 +3021,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="X11" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Y11" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27409</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="J12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2861,56 +3088,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="X12" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27409</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2928,56 +3159,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="X13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27409</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2993,56 +3228,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="X14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Y14" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27409</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3060,56 +3299,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27409</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>175</v>
       </c>
-      <c r="J16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L16" t="s">
-        <v>178</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>162</v>
-      </c>
       <c r="O16" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3125,56 +3368,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27409</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3186,56 +3433,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="X17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="Y17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>27409</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>205</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3247,47 +3498,51 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="X18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Y18" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>27409</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>215</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="J19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
@@ -3304,47 +3559,51 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="X19" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="Y19" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>27409</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>224</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
@@ -3361,56 +3620,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="X20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Y20" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>27409</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>233</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="J21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="K21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="O21" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3428,56 +3691,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="X21" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="Y21" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>27409</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>244</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="J22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="L22" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3493,56 +3760,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="X22" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="Y22" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>27409</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>254</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="J23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="K23" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="L23" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3560,56 +3831,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="X23" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="Y23" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>27409</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>264</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="J24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="K24" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3627,56 +3902,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="X24" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="Y24" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>27409</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>273</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="J25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="K25" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="L25" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3692,56 +3971,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="X25" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="Y25" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>27409</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>282</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="J26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="K26" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="O26" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3759,56 +4042,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="X26" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="Y26" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>27409</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>292</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="J27" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="K27" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="L27" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="O27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3826,56 +4113,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="X27" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="Y27" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27409</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>302</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="J28" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="K28" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="L28" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="O28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3891,56 +4182,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="X28" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="Y28" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27409</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>310</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="J29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="K29" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="L29" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3952,56 +4247,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="X29" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="Y29" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>27409</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>320</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="J30" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="K30" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="L30" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="O30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4019,56 +4318,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="X30" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="Y30" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>27409</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>330</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="J31" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="K31" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="L31" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4080,56 +4383,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="X31" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="Y31" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>27409</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>340</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="J32" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="K32" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="L32" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4145,56 +4452,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="X32" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="Y32" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>27409</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>350</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="J33" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="K33" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="L33" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4210,56 +4521,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="X33" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="Y33" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>27409</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>359</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="J34" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="K34" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="L34" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4275,56 +4590,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="X34" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="Y34" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>27409</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>369</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="J35" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="K35" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="L35" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="O35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4346,56 +4665,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="X35" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="Y35" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>27409</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>379</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="J36" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="K36" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="L36" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4407,47 +4730,51 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="X36" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="Y36" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>27409</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>389</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="J37" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="K37" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="L37" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
@@ -4474,56 +4801,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="X37" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="Y37" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>27409</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>398</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="J38" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="K38" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="L38" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="O38" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4545,47 +4876,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="X38" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="Y38" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>27409</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>408</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="J39" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="K39" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="L39" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -4604,50 +4939,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>27409</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>414</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="J40" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="K40" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="L40" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4671,50 +5010,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>27409</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>420</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="J41" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="K41" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="L41" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4736,56 +5079,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="X41" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="Y41" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>27409</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>430</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="J42" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="K42" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="L42" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="O42" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4807,56 +5154,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="X42" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="Y42" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>27409</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>439</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="J43" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="K43" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="L43" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="O43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4878,56 +5229,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="X43" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="Y43" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>27409</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>447</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="J44" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="K44" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="L44" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4949,56 +5304,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="X44" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="Y44" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>27409</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>457</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="J45" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="K45" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="L45" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="O45" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5020,56 +5379,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="X45" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="Y45" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>27409</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>466</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="J46" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="K46" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="L46" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5083,50 +5446,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>27409</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>473</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="J47" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="K47" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="L47" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5148,56 +5515,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="X47" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="Y47" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>27409</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>483</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="J48" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="K48" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="L48" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="O48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5219,56 +5590,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="X48" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="Y48" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>27409</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>493</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="J49" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="K49" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="L49" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5292,50 +5667,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>27409</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>499</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="J50" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="K50" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="L50" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="O50" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5359,50 +5738,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>27409</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>507</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="J51" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="K51" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="L51" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="O51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5426,50 +5809,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>27409</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>515</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="J52" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="K52" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="L52" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5493,50 +5880,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>27409</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>523</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="J53" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="K53" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="L53" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="O53" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -5560,50 +5951,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>27409</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>531</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="J54" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="K54" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="L54" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="O54" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5623,50 +6018,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>27409</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>539</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="J55" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="K55" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="L55" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="O55" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5686,50 +6085,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>27409</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>544</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="J56" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="K56" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="L56" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5753,50 +6156,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>27409</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>551</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="J57" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="K57" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="L57" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="O57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5820,50 +6227,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>27409</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>558</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="J58" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="K58" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="L58" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5887,50 +6298,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>27409</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>565</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="J59" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="K59" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="L59" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="O59" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -5950,50 +6365,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>27409</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>573</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="J60" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="K60" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="L60" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="O60" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6017,50 +6436,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>27409</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>581</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="J61" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
       <c r="K61" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="L61" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6082,41 +6505,45 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>27409</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>588</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="J62" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="K62" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="L62" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
@@ -6135,7 +6562,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
